--- a/CalculadoraDeflactorIPC.xlsx
+++ b/CalculadoraDeflactorIPC.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAR\Drive\CalculadoraIPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DRIVE\CalculadoraIPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="9750"/>
   </bookViews>
   <sheets>
-    <sheet name="Indice" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,64 +44,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F4FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6EAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -109,47 +61,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,6513 +349,6509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B812"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>19906</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>19937</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>19968</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>19998</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>20029</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>20059</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>20090</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>20121</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>20149</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>20180</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>20210</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>20241</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>20271</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>20302</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>0.03</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>20333</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>20363</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>20394</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>20424</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>20455</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>20486</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>20515</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>20546</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>0.03</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>20576</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>20607</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>20637</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27">
         <v>20668</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>20699</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>20729</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>0.03</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30">
         <v>20760</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31">
         <v>20790</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32">
         <v>20821</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>0.03</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33">
         <v>20852</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34">
         <v>20880</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>0.03</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>20911</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>20941</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>0.03</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>20972</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>21002</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>0.03</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39">
         <v>21033</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>0.03</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40">
         <v>21064</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41">
         <v>21094</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42">
         <v>21125</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>0.03</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43">
         <v>21155</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44">
         <v>21186</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45">
         <v>21217</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46">
         <v>21245</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47">
         <v>21276</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>21306</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>0.04</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49">
         <v>21337</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>0.04</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50">
         <v>21367</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>0.04</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>21398</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>21429</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>0.04</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53">
         <v>21459</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>0.04</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54">
         <v>21490</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55">
         <v>21520</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56">
         <v>21551</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>0.04</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57">
         <v>21582</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>0.04</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58">
         <v>21610</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>0.04</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59">
         <v>21641</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>0.04</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60">
         <v>21671</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61">
         <v>21702</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>0.04</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62">
         <v>21732</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63">
         <v>21763</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64">
         <v>21794</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>0.04</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65">
         <v>21824</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>0.04</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66">
         <v>21855</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>0.04</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67">
         <v>21885</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>0.04</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68">
         <v>21916</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>0.04</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69">
         <v>21947</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>0.04</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70">
         <v>21976</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71">
         <v>22007</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71">
         <v>0.04</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>22037</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>0.04</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73">
         <v>22068</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>0.04</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74">
         <v>22098</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>0.04</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75">
         <v>22129</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>0.04</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76">
         <v>22160</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>0.04</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77">
         <v>22190</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>0.04</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78">
         <v>22221</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>0.04</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79">
         <v>22251</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>0.04</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80">
         <v>22282</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>0.04</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81">
         <v>22313</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81">
         <v>0.04</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82">
         <v>22341</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>0.04</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83">
         <v>22372</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>0.05</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84">
         <v>22402</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>0.05</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85">
         <v>22433</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85">
         <v>0.05</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86">
         <v>22463</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87">
         <v>22494</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87">
         <v>0.05</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88">
         <v>22525</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>0.05</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89">
         <v>22555</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89">
         <v>0.05</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90">
         <v>22586</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>0.05</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91">
         <v>22616</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91">
         <v>0.05</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92">
         <v>22647</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93">
         <v>22678</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93">
         <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94">
         <v>22706</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95">
         <v>22737</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95">
         <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96">
         <v>22767</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>0.05</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97">
         <v>22798</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97">
         <v>0.05</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98">
         <v>22828</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>0.05</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99">
         <v>22859</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99">
         <v>0.05</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100">
         <v>22890</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>0.05</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101">
         <v>22920</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101">
         <v>0.05</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102">
         <v>22951</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>0.05</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103">
         <v>22981</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103">
         <v>0.05</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104">
         <v>23012</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>0.05</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105">
         <v>23043</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105">
         <v>0.05</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106">
         <v>23071</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>0.06</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107">
         <v>23102</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107">
         <v>0.06</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108">
         <v>23132</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>0.06</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109">
         <v>23163</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109">
         <v>0.06</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110">
         <v>23193</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>0.06</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111">
         <v>23224</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111">
         <v>0.06</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112">
         <v>23255</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>0.06</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113">
         <v>23285</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113">
         <v>0.06</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114">
         <v>23316</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>0.06</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="A115">
         <v>23346</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115">
         <v>0.06</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116">
         <v>23377</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117">
         <v>23408</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118">
         <v>23437</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119">
         <v>23468</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120">
         <v>23498</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="A121">
         <v>23529</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122">
         <v>23559</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123">
         <v>23590</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="A124">
         <v>23621</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125">
         <v>23651</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126">
         <v>23682</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127">
         <v>23712</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128">
         <v>23743</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129">
         <v>23774</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130">
         <v>23802</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131">
         <v>23833</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132">
         <v>23863</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133">
         <v>23894</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133">
         <v>0.08</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134">
         <v>23924</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>0.08</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135">
         <v>23955</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135">
         <v>0.08</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
+      <c r="A136">
         <v>23986</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>0.08</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137">
         <v>24016</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137">
         <v>0.08</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138">
         <v>24047</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>0.08</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="A139">
         <v>24077</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139">
         <v>0.08</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140">
         <v>24108</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>0.08</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141">
         <v>24139</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141">
         <v>0.08</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
+      <c r="A142">
         <v>24167</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142">
         <v>0.09</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143">
         <v>24198</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143">
         <v>0.09</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144">
         <v>24228</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144">
         <v>0.09</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
+      <c r="A145">
         <v>24259</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145">
         <v>0.09</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146">
         <v>24289</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146">
         <v>0.09</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147">
         <v>24320</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147">
         <v>0.09</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="7">
+      <c r="A148">
         <v>24351</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>0.09</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149">
         <v>24381</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149">
         <v>0.09</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150">
         <v>24412</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150">
         <v>0.09</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+      <c r="A151">
         <v>24442</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151">
         <v>0.09</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152">
         <v>24473</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152">
         <v>0.09</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153">
         <v>24504</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153">
         <v>0.09</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="A154">
         <v>24532</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154">
         <v>0.09</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155">
         <v>24563</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155">
         <v>0.09</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
+      <c r="A156">
         <v>24593</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156">
         <v>0.09</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="7">
+      <c r="A157">
         <v>24624</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157">
         <v>0.1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="7">
+      <c r="A158">
         <v>24654</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158">
         <v>0.1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="7">
+      <c r="A159">
         <v>24685</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159">
         <v>0.1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="7">
+      <c r="A160">
         <v>24716</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160">
         <v>0.1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
+      <c r="A161">
         <v>24746</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161">
         <v>0.1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="7">
+      <c r="A162">
         <v>24777</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162">
         <v>0.1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="7">
+      <c r="A163">
         <v>24807</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163">
         <v>0.1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
+      <c r="A164">
         <v>24838</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164">
         <v>0.1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="7">
+      <c r="A165">
         <v>24869</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165">
         <v>0.1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="7">
+      <c r="A166">
         <v>24898</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166">
         <v>0.1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
+      <c r="A167">
         <v>24929</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167">
         <v>0.1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="7">
+      <c r="A168">
         <v>24959</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168">
         <v>0.1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="7">
+      <c r="A169">
         <v>24990</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169">
         <v>0.1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170">
         <v>25020</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170">
         <v>0.1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="7">
+      <c r="A171">
         <v>25051</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171">
         <v>0.1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="7">
+      <c r="A172">
         <v>25082</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172">
         <v>0.1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+      <c r="A173">
         <v>25112</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173">
         <v>0.1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+      <c r="A174">
         <v>25143</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174">
         <v>0.1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
+      <c r="A175">
         <v>25173</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175">
         <v>0.1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176">
         <v>25204</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176">
         <v>0.11</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="7">
+      <c r="A177">
         <v>25235</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177">
         <v>0.11</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="7">
+      <c r="A178">
         <v>25263</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178">
         <v>0.11</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+      <c r="A179">
         <v>25294</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179">
         <v>0.11</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180">
         <v>25324</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180">
         <v>0.11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+      <c r="A181">
         <v>25355</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181">
         <v>0.11</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+      <c r="A182">
         <v>25385</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182">
         <v>0.11</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="7">
+      <c r="A183">
         <v>25416</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183">
         <v>0.11</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="7">
+      <c r="A184">
         <v>25447</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184">
         <v>0.11</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="7">
+      <c r="A185">
         <v>25477</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185">
         <v>0.11</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="A186">
         <v>25508</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186">
         <v>0.11</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+      <c r="A187">
         <v>25538</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187">
         <v>0.11</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188">
         <v>25569</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188">
         <v>0.11</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+      <c r="A189">
         <v>25600</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189">
         <v>0.11</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="7">
+      <c r="A190">
         <v>25628</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190">
         <v>0.11</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="7">
+      <c r="A191">
         <v>25659</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191">
         <v>0.12</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
+      <c r="A192">
         <v>25689</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192">
         <v>0.12</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
+      <c r="A193">
         <v>25720</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193">
         <v>0.12</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="A194">
         <v>25750</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194">
         <v>0.12</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="7">
+      <c r="A195">
         <v>25781</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195">
         <v>0.12</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="7">
+      <c r="A196">
         <v>25812</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196">
         <v>0.12</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="7">
+      <c r="A197">
         <v>25842</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197">
         <v>0.12</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="7">
+      <c r="A198">
         <v>25873</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198">
         <v>0.12</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="7">
+      <c r="A199">
         <v>25903</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199">
         <v>0.12</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="7">
+      <c r="A200">
         <v>25934</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200">
         <v>0.12</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="7">
+      <c r="A201">
         <v>25965</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201">
         <v>0.12</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="7">
+      <c r="A202">
         <v>25993</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202">
         <v>0.12</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="7">
+      <c r="A203">
         <v>26024</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203">
         <v>0.13</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="7">
+      <c r="A204">
         <v>26054</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204">
         <v>0.13</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="7">
+      <c r="A205">
         <v>26085</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205">
         <v>0.13</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="7">
+      <c r="A206">
         <v>26115</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206">
         <v>0.13</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="7">
+      <c r="A207">
         <v>26146</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207">
         <v>0.13</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="7">
+      <c r="A208">
         <v>26177</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208">
         <v>0.13</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="7">
+      <c r="A209">
         <v>26207</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="7">
+      <c r="A210">
         <v>26238</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="7">
+      <c r="A211">
         <v>26268</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="7">
+      <c r="A212">
         <v>26299</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="7">
+      <c r="A213">
         <v>26330</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="7">
+      <c r="A214">
         <v>26359</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="7">
+      <c r="A215">
         <v>26390</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="7">
+      <c r="A216">
         <v>26420</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216">
         <v>0.15</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="7">
+      <c r="A217">
         <v>26451</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217">
         <v>0.15</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="7">
+      <c r="A218">
         <v>26481</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218">
         <v>0.15</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="7">
+      <c r="A219">
         <v>26512</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219">
         <v>0.15</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+      <c r="A220">
         <v>26543</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220">
         <v>0.15</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="7">
+      <c r="A221">
         <v>26573</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221">
         <v>0.15</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="7">
+      <c r="A222">
         <v>26604</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222">
         <v>0.16</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="7">
+      <c r="A223">
         <v>26634</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223">
         <v>0.16</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="7">
+      <c r="A224">
         <v>26665</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224">
         <v>0.16</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="7">
+      <c r="A225">
         <v>26696</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225">
         <v>0.16</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="7">
+      <c r="A226">
         <v>26724</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226">
         <v>0.17</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="7">
+      <c r="A227">
         <v>26755</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227">
         <v>0.17</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="7">
+      <c r="A228">
         <v>26785</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228">
         <v>0.18</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="7">
+      <c r="A229">
         <v>26816</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229">
         <v>0.18</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="A230">
         <v>26846</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230">
         <v>0.19</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="7">
+      <c r="A231">
         <v>26877</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231">
         <v>0.18</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="7">
+      <c r="A232">
         <v>26908</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232">
         <v>0.19</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="7">
+      <c r="A233">
         <v>26938</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233">
         <v>0.19</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="7">
+      <c r="A234">
         <v>26969</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234">
         <v>0.19</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="7">
+      <c r="A235">
         <v>26999</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235">
         <v>0.19</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="7">
+      <c r="A236">
         <v>27030</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236">
         <v>0.2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="7">
+      <c r="A237">
         <v>27061</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237">
         <v>0.21</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="7">
+      <c r="A238">
         <v>27089</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238">
         <v>0.21</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="7">
+      <c r="A239">
         <v>27120</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239">
         <v>0.22</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="7">
+      <c r="A240">
         <v>27150</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240">
         <v>0.22</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="7">
+      <c r="A241">
         <v>27181</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241">
         <v>0.22</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="7">
+      <c r="A242">
         <v>27211</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242">
         <v>0.22</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="7">
+      <c r="A243">
         <v>27242</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243">
         <v>0.23</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="7">
+      <c r="A244">
         <v>27273</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244">
         <v>0.23</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="7">
+      <c r="A245">
         <v>27303</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245">
         <v>0.24</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="7">
+      <c r="A246">
         <v>27334</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246">
         <v>0.24</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="7">
+      <c r="A247">
         <v>27364</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247">
         <v>0.25</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="7">
+      <c r="A248">
         <v>27395</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248">
         <v>0.25</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="A249">
         <v>27426</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249">
         <v>0.26</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="7">
+      <c r="A250">
         <v>27454</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250">
         <v>0.26</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="7">
+      <c r="A251">
         <v>27485</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251">
         <v>0.27</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="7">
+      <c r="A252">
         <v>27515</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="7">
+      <c r="A253">
         <v>27546</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="7">
+      <c r="A254">
         <v>27576</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="7">
+      <c r="A255">
         <v>27607</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="7">
+      <c r="A256">
         <v>27638</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="7">
+      <c r="A257">
         <v>27668</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="A258">
         <v>27699</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="7">
+      <c r="A259">
         <v>27729</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
+      <c r="A260">
         <v>27760</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260">
         <v>0.3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="7">
+      <c r="A261">
         <v>27791</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261">
         <v>0.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="7">
+      <c r="A262">
         <v>27820</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262">
         <v>0.31</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="7">
+      <c r="A263">
         <v>27851</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263">
         <v>0.32</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="7">
+      <c r="A264">
         <v>27881</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264">
         <v>0.32</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="7">
+      <c r="A265">
         <v>27912</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265">
         <v>0.33</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="7">
+      <c r="A266">
         <v>27942</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266">
         <v>0.34</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="7">
+      <c r="A267">
         <v>27973</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267">
         <v>0.34</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="7">
+      <c r="A268">
         <v>28004</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268">
         <v>0.35</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="7">
+      <c r="A269">
         <v>28034</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269">
         <v>0.35</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="7">
+      <c r="A270">
         <v>28065</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270">
         <v>0.36</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="7">
+      <c r="A271">
         <v>28095</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271">
         <v>0.36</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="7">
+      <c r="A272">
         <v>28126</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272">
         <v>0.37</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="7">
+      <c r="A273">
         <v>28157</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273">
         <v>0.39</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="7">
+      <c r="A274">
         <v>28185</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274">
         <v>0.4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="7">
+      <c r="A275">
         <v>28216</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275">
         <v>0.43</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="7">
+      <c r="A276">
         <v>28246</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276">
         <v>0.45</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="7">
+      <c r="A277">
         <v>28277</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277">
         <v>0.46</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="7">
+      <c r="A278">
         <v>28307</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278">
         <v>0.47</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="7">
+      <c r="A279">
         <v>28338</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279">
         <v>0.47</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="7">
+      <c r="A280">
         <v>28369</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280">
         <v>0.47</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="7">
+      <c r="A281">
         <v>28399</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281">
         <v>0.47</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="7">
+      <c r="A282">
         <v>28430</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282">
         <v>0.47</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="7">
+      <c r="A283">
         <v>28460</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283">
         <v>0.47</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="7">
+      <c r="A284">
         <v>28491</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284">
         <v>0.47</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="7">
+      <c r="A285">
         <v>28522</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285">
         <v>0.48</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="7">
+      <c r="A286">
         <v>28550</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286">
         <v>0.5</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="7">
+      <c r="A287">
         <v>28581</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287">
         <v>0.5</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="7">
+      <c r="A288">
         <v>28611</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288">
         <v>0.52</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+      <c r="A289">
         <v>28642</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289">
         <v>0.53</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="7">
+      <c r="A290">
         <v>28672</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290">
         <v>0.53</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="7">
+      <c r="A291">
         <v>28703</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291">
         <v>0.53</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="7">
+      <c r="A292">
         <v>28734</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292">
         <v>0.53</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="7">
+      <c r="A293">
         <v>28764</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293">
         <v>0.54</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="7">
+      <c r="A294">
         <v>28795</v>
       </c>
-      <c r="B294" s="4">
+      <c r="B294">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="7">
+      <c r="A295">
         <v>28825</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="7">
+      <c r="A296">
         <v>28856</v>
       </c>
-      <c r="B296" s="4">
+      <c r="B296">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="7">
+      <c r="A297">
         <v>28887</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="7">
+      <c r="A298">
         <v>28915</v>
       </c>
-      <c r="B298" s="4">
+      <c r="B298">
         <v>0.61</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="7">
+      <c r="A299">
         <v>28946</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299">
         <v>0.62</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="7">
+      <c r="A300">
         <v>28976</v>
       </c>
-      <c r="B300" s="4">
+      <c r="B300">
         <v>0.63</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="7">
+      <c r="A301">
         <v>29007</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301">
         <v>0.64</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
+      <c r="A302">
         <v>29037</v>
       </c>
-      <c r="B302" s="4">
+      <c r="B302">
         <v>0.65</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="7">
+      <c r="A303">
         <v>29068</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303">
         <v>0.66</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="7">
+      <c r="A304">
         <v>29099</v>
       </c>
-      <c r="B304" s="4">
+      <c r="B304">
         <v>0.68</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="7">
+      <c r="A305">
         <v>29129</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305">
         <v>0.69</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="7">
+      <c r="A306">
         <v>29160</v>
       </c>
-      <c r="B306" s="4">
+      <c r="B306">
         <v>0.7</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="7">
+      <c r="A307">
         <v>29190</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307">
         <v>0.72</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="7">
+      <c r="A308">
         <v>29221</v>
       </c>
-      <c r="B308" s="4">
+      <c r="B308">
         <v>0.73</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="7">
+      <c r="A309">
         <v>29252</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309">
         <v>0.74</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="7">
+      <c r="A310">
         <v>29281</v>
       </c>
-      <c r="B310" s="4">
+      <c r="B310">
         <v>0.76</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="7">
+      <c r="A311">
         <v>29312</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311">
         <v>0.78</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="7">
+      <c r="A312">
         <v>29342</v>
       </c>
-      <c r="B312" s="4">
+      <c r="B312">
         <v>0.81</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="7">
+      <c r="A313">
         <v>29373</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313">
         <v>0.82</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="7">
+      <c r="A314">
         <v>29403</v>
       </c>
-      <c r="B314" s="4">
+      <c r="B314">
         <v>0.83</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="7">
+      <c r="A315">
         <v>29434</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315">
         <v>0.84</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="7">
+      <c r="A316">
         <v>29465</v>
       </c>
-      <c r="B316" s="4">
+      <c r="B316">
         <v>0.85</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="7">
+      <c r="A317">
         <v>29495</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317">
         <v>0.87</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="7">
+      <c r="A318">
         <v>29526</v>
       </c>
-      <c r="B318" s="4">
+      <c r="B318">
         <v>0.89</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="7">
+      <c r="A319">
         <v>29556</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319">
         <v>0.9</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="7">
+      <c r="A320">
         <v>29587</v>
       </c>
-      <c r="B320" s="4">
+      <c r="B320">
         <v>0.92</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="7">
+      <c r="A321">
         <v>29618</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321">
         <v>0.95</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="7">
+      <c r="A322">
         <v>29646</v>
       </c>
-      <c r="B322" s="4">
+      <c r="B322">
         <v>0.97</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="7">
+      <c r="A323">
         <v>29677</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="7">
+      <c r="A324">
         <v>29707</v>
       </c>
-      <c r="B324" s="4">
+      <c r="B324">
         <v>1.02</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="7">
+      <c r="A325">
         <v>29738</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325">
         <v>1.05</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="7">
+      <c r="A326">
         <v>29768</v>
       </c>
-      <c r="B326" s="4">
+      <c r="B326">
         <v>1.07</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="7">
+      <c r="A327">
         <v>29799</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327">
         <v>1.08</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="7">
+      <c r="A328">
         <v>29830</v>
       </c>
-      <c r="B328" s="4">
+      <c r="B328">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="7">
+      <c r="A329">
         <v>29860</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="7">
+      <c r="A330">
         <v>29891</v>
       </c>
-      <c r="B330" s="4">
+      <c r="B330">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="7">
+      <c r="A331">
         <v>29921</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331">
         <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="7">
+      <c r="A332">
         <v>29952</v>
       </c>
-      <c r="B332" s="4">
+      <c r="B332">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="7">
+      <c r="A333">
         <v>29983</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333">
         <v>1.18</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="7">
+      <c r="A334">
         <v>30011</v>
       </c>
-      <c r="B334" s="4">
+      <c r="B334">
         <v>1.21</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="7">
+      <c r="A335">
         <v>30042</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335">
         <v>1.24</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="7">
+      <c r="A336">
         <v>30072</v>
       </c>
-      <c r="B336" s="4">
+      <c r="B336">
         <v>1.28</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="7">
+      <c r="A337">
         <v>30103</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337">
         <v>1.3</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="7">
+      <c r="A338">
         <v>30133</v>
       </c>
-      <c r="B338" s="4">
+      <c r="B338">
         <v>1.32</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="7">
+      <c r="A339">
         <v>30164</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339">
         <v>1.34</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="7">
+      <c r="A340">
         <v>30195</v>
       </c>
-      <c r="B340" s="4">
+      <c r="B340">
         <v>1.36</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="7">
+      <c r="A341">
         <v>30225</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341">
         <v>1.38</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="7">
+      <c r="A342">
         <v>30256</v>
       </c>
-      <c r="B342" s="4">
+      <c r="B342">
         <v>1.4</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="7">
+      <c r="A343">
         <v>30286</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343">
         <v>1.41</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="7">
+      <c r="A344">
         <v>30317</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344">
         <v>1.43</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="7">
+      <c r="A345">
         <v>30348</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345">
         <v>1.44</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="7">
+      <c r="A346">
         <v>30376</v>
       </c>
-      <c r="B346" s="4">
+      <c r="B346">
         <v>1.48</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="7">
+      <c r="A347">
         <v>30407</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347">
         <v>1.52</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="7">
+      <c r="A348">
         <v>30437</v>
       </c>
-      <c r="B348" s="4">
+      <c r="B348">
         <v>1.56</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="7">
+      <c r="A349">
         <v>30468</v>
       </c>
-      <c r="B349" s="5">
+      <c r="B349">
         <v>1.57</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="7">
+      <c r="A350">
         <v>30498</v>
       </c>
-      <c r="B350" s="4">
+      <c r="B350">
         <v>1.58</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="7">
+      <c r="A351">
         <v>30529</v>
       </c>
-      <c r="B351" s="5">
+      <c r="B351">
         <v>1.58</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="7">
+      <c r="A352">
         <v>30560</v>
       </c>
-      <c r="B352" s="4">
+      <c r="B352">
         <v>1.59</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="7">
+      <c r="A353">
         <v>30590</v>
       </c>
-      <c r="B353" s="5">
+      <c r="B353">
         <v>1.62</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="7">
+      <c r="A354">
         <v>30621</v>
       </c>
-      <c r="B354" s="4">
+      <c r="B354">
         <v>1.64</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="7">
+      <c r="A355">
         <v>30651</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355">
         <v>1.65</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="7">
+      <c r="A356">
         <v>30682</v>
       </c>
-      <c r="B356" s="4">
+      <c r="B356">
         <v>1.67</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="7">
+      <c r="A357">
         <v>30713</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357">
         <v>1.69</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="7">
+      <c r="A358">
         <v>30742</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358">
         <v>1.72</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="7">
+      <c r="A359">
         <v>30773</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359">
         <v>1.76</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="7">
+      <c r="A360">
         <v>30803</v>
       </c>
-      <c r="B360" s="4">
+      <c r="B360">
         <v>1.78</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="7">
+      <c r="A361">
         <v>30834</v>
       </c>
-      <c r="B361" s="5">
+      <c r="B361">
         <v>1.81</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="7">
+      <c r="A362">
         <v>30864</v>
       </c>
-      <c r="B362" s="4">
+      <c r="B362">
         <v>1.83</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="7">
+      <c r="A363">
         <v>30895</v>
       </c>
-      <c r="B363" s="5">
+      <c r="B363">
         <v>1.84</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="7">
+      <c r="A364">
         <v>30926</v>
       </c>
-      <c r="B364" s="4">
+      <c r="B364">
         <v>1.86</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="7">
+      <c r="A365">
         <v>30956</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365">
         <v>1.87</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="7">
+      <c r="A366">
         <v>30987</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366">
         <v>1.91</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="7">
+      <c r="A367">
         <v>31017</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367">
         <v>1.95</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="7">
+      <c r="A368">
         <v>31048</v>
       </c>
-      <c r="B368" s="4">
+      <c r="B368">
         <v>1.99</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="7">
+      <c r="A369">
         <v>31079</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="7">
+      <c r="A370">
         <v>31107</v>
       </c>
-      <c r="B370" s="4">
+      <c r="B370">
         <v>2.11</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="7">
+      <c r="A371">
         <v>31138</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371">
         <v>2.17</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="7">
+      <c r="A372">
         <v>31168</v>
       </c>
-      <c r="B372" s="4">
+      <c r="B372">
         <v>2.27</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="7">
+      <c r="A373">
         <v>31199</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373">
         <v>2.31</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="7">
+      <c r="A374">
         <v>31229</v>
       </c>
-      <c r="B374" s="4">
+      <c r="B374">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="7">
+      <c r="A375">
         <v>31260</v>
       </c>
-      <c r="B375" s="5">
+      <c r="B375">
         <v>2.29</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="7">
+      <c r="A376">
         <v>31291</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376">
         <v>2.31</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="7">
+      <c r="A377">
         <v>31321</v>
       </c>
-      <c r="B377" s="5">
+      <c r="B377">
         <v>2.33</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="7">
+      <c r="A378">
         <v>31352</v>
       </c>
-      <c r="B378" s="4">
+      <c r="B378">
         <v>2.35</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="7">
+      <c r="A379">
         <v>31382</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379">
         <v>2.38</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="7">
+      <c r="A380">
         <v>31413</v>
       </c>
-      <c r="B380" s="4">
+      <c r="B380">
         <v>2.46</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="7">
+      <c r="A381">
         <v>31444</v>
       </c>
-      <c r="B381" s="5">
+      <c r="B381">
         <v>2.54</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="7">
+      <c r="A382">
         <v>31472</v>
       </c>
-      <c r="B382" s="4">
+      <c r="B382">
         <v>2.59</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="7">
+      <c r="A383">
         <v>31503</v>
       </c>
-      <c r="B383" s="5">
+      <c r="B383">
         <v>2.66</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="7">
+      <c r="A384">
         <v>31533</v>
       </c>
-      <c r="B384" s="4">
+      <c r="B384">
         <v>2.64</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="7">
+      <c r="A385">
         <v>31564</v>
       </c>
-      <c r="B385" s="5">
+      <c r="B385">
         <v>2.63</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="7">
+      <c r="A386">
         <v>31594</v>
       </c>
-      <c r="B386" s="4">
+      <c r="B386">
         <v>2.62</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="7">
+      <c r="A387">
         <v>31625</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387">
         <v>2.66</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="7">
+      <c r="A388">
         <v>31656</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388">
         <v>2.7</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="7">
+      <c r="A389">
         <v>31686</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389">
         <v>2.76</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="7">
+      <c r="A390">
         <v>31717</v>
       </c>
-      <c r="B390" s="4">
+      <c r="B390">
         <v>2.81</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="7">
+      <c r="A391">
         <v>31747</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391">
         <v>2.88</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="7">
+      <c r="A392">
         <v>31778</v>
       </c>
-      <c r="B392" s="4">
+      <c r="B392">
         <v>2.98</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="7">
+      <c r="A393">
         <v>31809</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393">
         <v>3.04</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="7">
+      <c r="A394">
         <v>31837</v>
       </c>
-      <c r="B394" s="4">
+      <c r="B394">
         <v>3.12</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="7">
+      <c r="A395">
         <v>31868</v>
       </c>
-      <c r="B395" s="5">
+      <c r="B395">
         <v>3.19</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="7">
+      <c r="A396">
         <v>31898</v>
       </c>
-      <c r="B396" s="4">
+      <c r="B396">
         <v>3.25</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="7">
+      <c r="A397">
         <v>31929</v>
       </c>
-      <c r="B397" s="5">
+      <c r="B397">
         <v>3.28</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="7">
+      <c r="A398">
         <v>31959</v>
       </c>
-      <c r="B398" s="4">
+      <c r="B398">
         <v>3.32</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="7">
+      <c r="A399">
         <v>31990</v>
       </c>
-      <c r="B399" s="5">
+      <c r="B399">
         <v>3.33</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="7">
+      <c r="A400">
         <v>32021</v>
       </c>
-      <c r="B400" s="4">
+      <c r="B400">
         <v>3.37</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="7">
+      <c r="A401">
         <v>32051</v>
       </c>
-      <c r="B401" s="5">
+      <c r="B401">
         <v>3.44</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="7">
+      <c r="A402">
         <v>32082</v>
       </c>
-      <c r="B402" s="4">
+      <c r="B402">
         <v>3.51</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="7">
+      <c r="A403">
         <v>32112</v>
       </c>
-      <c r="B403" s="5">
+      <c r="B403">
         <v>3.58</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="7">
+      <c r="A404">
         <v>32143</v>
       </c>
-      <c r="B404" s="4">
+      <c r="B404">
         <v>3.68</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="7">
+      <c r="A405">
         <v>32174</v>
       </c>
-      <c r="B405" s="5">
+      <c r="B405">
         <v>3.83</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="7">
+      <c r="A406">
         <v>32203</v>
       </c>
-      <c r="B406" s="4">
+      <c r="B406">
         <v>3.94</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="7">
+      <c r="A407">
         <v>32234</v>
       </c>
-      <c r="B407" s="5">
+      <c r="B407">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="7">
+      <c r="A408">
         <v>32264</v>
       </c>
-      <c r="B408" s="4">
+      <c r="B408">
         <v>4.17</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="7">
+      <c r="A409">
         <v>32295</v>
       </c>
-      <c r="B409" s="5">
+      <c r="B409">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="7">
+      <c r="A410">
         <v>32325</v>
       </c>
-      <c r="B410" s="4">
+      <c r="B410">
         <v>4.33</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="7">
+      <c r="A411">
         <v>32356</v>
       </c>
-      <c r="B411" s="5">
+      <c r="B411">
         <v>4.32</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="7">
+      <c r="A412">
         <v>32387</v>
       </c>
-      <c r="B412" s="4">
+      <c r="B412">
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="7">
+      <c r="A413">
         <v>32417</v>
       </c>
-      <c r="B413" s="5">
+      <c r="B413">
         <v>4.42</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="7">
+      <c r="A414">
         <v>32448</v>
       </c>
-      <c r="B414" s="4">
+      <c r="B414">
         <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="7">
+      <c r="A415">
         <v>32478</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415">
         <v>4.58</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="7">
+      <c r="A416">
         <v>32509</v>
       </c>
-      <c r="B416" s="4">
+      <c r="B416">
         <v>4.71</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="7">
+      <c r="A417">
         <v>32540</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417">
         <v>4.87</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="7">
+      <c r="A418">
         <v>32568</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418">
         <v>4.99</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="7">
+      <c r="A419">
         <v>32599</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419">
         <v>5.12</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="7">
+      <c r="A420">
         <v>32629</v>
       </c>
-      <c r="B420" s="4">
+      <c r="B420">
         <v>5.21</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="7">
+      <c r="A421">
         <v>32660</v>
       </c>
-      <c r="B421" s="5">
+      <c r="B421">
         <v>5.28</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="7">
+      <c r="A422">
         <v>32690</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422">
         <v>5.36</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="7">
+      <c r="A423">
         <v>32721</v>
       </c>
-      <c r="B423" s="5">
+      <c r="B423">
         <v>5.43</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="7">
+      <c r="A424">
         <v>32752</v>
       </c>
-      <c r="B424" s="4">
+      <c r="B424">
         <v>5.51</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="7">
+      <c r="A425">
         <v>32782</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425">
         <v>5.6</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="7">
+      <c r="A426">
         <v>32813</v>
       </c>
-      <c r="B426" s="4">
+      <c r="B426">
         <v>5.7</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="7">
+      <c r="A427">
         <v>32843</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427">
         <v>5.78</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="7">
+      <c r="A428">
         <v>32874</v>
       </c>
-      <c r="B428" s="4">
+      <c r="B428">
         <v>5.97</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="7">
+      <c r="A429">
         <v>32905</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429">
         <v>6.19</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="7">
+      <c r="A430">
         <v>32933</v>
       </c>
-      <c r="B430" s="4">
+      <c r="B430">
         <v>6.37</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="7">
+      <c r="A431">
         <v>32964</v>
       </c>
-      <c r="B431" s="5">
+      <c r="B431">
         <v>6.55</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="7">
+      <c r="A432">
         <v>32994</v>
       </c>
-      <c r="B432" s="4">
+      <c r="B432">
         <v>6.68</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="7">
+      <c r="A433">
         <v>33025</v>
       </c>
-      <c r="B433" s="5">
+      <c r="B433">
         <v>6.81</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="7">
+      <c r="A434">
         <v>33055</v>
       </c>
-      <c r="B434" s="4">
+      <c r="B434">
         <v>6.9</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="7">
+      <c r="A435">
         <v>33086</v>
       </c>
-      <c r="B435" s="5">
+      <c r="B435">
         <v>7.01</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="7">
+      <c r="A436">
         <v>33117</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436">
         <v>7.18</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="7">
+      <c r="A437">
         <v>33147</v>
       </c>
-      <c r="B437" s="5">
+      <c r="B437">
         <v>7.31</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="7">
+      <c r="A438">
         <v>33178</v>
       </c>
-      <c r="B438" s="4">
+      <c r="B438">
         <v>7.46</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="7">
+      <c r="A439">
         <v>33208</v>
       </c>
-      <c r="B439" s="5">
+      <c r="B439">
         <v>7.65</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="7">
+      <c r="A440">
         <v>33239</v>
       </c>
-      <c r="B440" s="4">
+      <c r="B440">
         <v>7.88</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="7">
+      <c r="A441">
         <v>33270</v>
       </c>
-      <c r="B441" s="5">
+      <c r="B441">
         <v>8.15</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="7">
+      <c r="A442">
         <v>33298</v>
       </c>
-      <c r="B442" s="4">
+      <c r="B442">
         <v>8.36</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="7">
+      <c r="A443">
         <v>33329</v>
       </c>
-      <c r="B443" s="5">
+      <c r="B443">
         <v>8.59</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="7">
+      <c r="A444">
         <v>33359</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444">
         <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="7">
+      <c r="A445">
         <v>33390</v>
       </c>
-      <c r="B445" s="5">
+      <c r="B445">
         <v>8.92</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="7">
+      <c r="A446">
         <v>33420</v>
       </c>
-      <c r="B446" s="4">
+      <c r="B446">
         <v>9.08</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="7">
+      <c r="A447">
         <v>33451</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="7">
+      <c r="A448">
         <v>33482</v>
       </c>
-      <c r="B448" s="4">
+      <c r="B448">
         <v>9.33</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="7">
+      <c r="A449">
         <v>33512</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449">
         <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="7">
+      <c r="A450">
         <v>33543</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450">
         <v>9.57</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="7">
+      <c r="A451">
         <v>33573</v>
       </c>
-      <c r="B451" s="5">
+      <c r="B451">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="7">
+      <c r="A452">
         <v>33604</v>
       </c>
-      <c r="B452" s="4">
+      <c r="B452">
         <v>10.039999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="7">
+      <c r="A453">
         <v>33635</v>
       </c>
-      <c r="B453" s="5">
+      <c r="B453">
         <v>10.38</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="7">
+      <c r="A454">
         <v>33664</v>
       </c>
-      <c r="B454" s="4">
+      <c r="B454">
         <v>10.62</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="7">
+      <c r="A455">
         <v>33695</v>
       </c>
-      <c r="B455" s="5">
+      <c r="B455">
         <v>10.92</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="7">
+      <c r="A456">
         <v>33725</v>
       </c>
-      <c r="B456" s="4">
+      <c r="B456">
         <v>11.18</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="7">
+      <c r="A457">
         <v>33756</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B457">
         <v>11.43</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="7">
+      <c r="A458">
         <v>33786</v>
       </c>
-      <c r="B458" s="4">
+      <c r="B458">
         <v>11.66</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="7">
+      <c r="A459">
         <v>33817</v>
       </c>
-      <c r="B459" s="5">
+      <c r="B459">
         <v>11.74</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="7">
+      <c r="A460">
         <v>33848</v>
       </c>
-      <c r="B460" s="4">
+      <c r="B460">
         <v>11.84</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="7">
+      <c r="A461">
         <v>33878</v>
       </c>
-      <c r="B461" s="5">
+      <c r="B461">
         <v>11.94</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="7">
+      <c r="A462">
         <v>33909</v>
       </c>
-      <c r="B462" s="4">
+      <c r="B462">
         <v>12.03</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="7">
+      <c r="A463">
         <v>33939</v>
       </c>
-      <c r="B463" s="5">
+      <c r="B463">
         <v>12.14</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="7">
+      <c r="A464">
         <v>33970</v>
       </c>
-      <c r="B464" s="4">
+      <c r="B464">
         <v>12.54</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="7">
+      <c r="A465">
         <v>34001</v>
       </c>
-      <c r="B465" s="5">
+      <c r="B465">
         <v>12.94</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="7">
+      <c r="A466">
         <v>34029</v>
       </c>
-      <c r="B466" s="4">
+      <c r="B466">
         <v>13.19</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="7">
+      <c r="A467">
         <v>34060</v>
       </c>
-      <c r="B467" s="5">
+      <c r="B467">
         <v>13.44</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="7">
+      <c r="A468">
         <v>34090</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468">
         <v>13.66</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="7">
+      <c r="A469">
         <v>34121</v>
       </c>
-      <c r="B469" s="5">
+      <c r="B469">
         <v>13.87</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="7">
+      <c r="A470">
         <v>34151</v>
       </c>
-      <c r="B470" s="4">
+      <c r="B470">
         <v>14.04</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="7">
+      <c r="A471">
         <v>34182</v>
       </c>
-      <c r="B471" s="5">
+      <c r="B471">
         <v>14.22</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="7">
+      <c r="A472">
         <v>34213</v>
       </c>
-      <c r="B472" s="4">
+      <c r="B472">
         <v>14.38</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="7">
+      <c r="A473">
         <v>34243</v>
       </c>
-      <c r="B473" s="5">
+      <c r="B473">
         <v>14.53</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="7">
+      <c r="A474">
         <v>34274</v>
       </c>
-      <c r="B474" s="4">
+      <c r="B474">
         <v>14.72</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="7">
+      <c r="A475">
         <v>34304</v>
       </c>
-      <c r="B475" s="5">
+      <c r="B475">
         <v>14.89</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="7">
+      <c r="A476">
         <v>34335</v>
       </c>
-      <c r="B476" s="4">
+      <c r="B476">
         <v>15.36</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="7">
+      <c r="A477">
         <v>34366</v>
       </c>
-      <c r="B477" s="5">
+      <c r="B477">
         <v>15.92</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="7">
+      <c r="A478">
         <v>34394</v>
       </c>
-      <c r="B478" s="4">
+      <c r="B478">
         <v>16.27</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="7">
+      <c r="A479">
         <v>34425</v>
       </c>
-      <c r="B479" s="5">
+      <c r="B479">
         <v>16.66</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="7">
+      <c r="A480">
         <v>34455</v>
       </c>
-      <c r="B480" s="4">
+      <c r="B480">
         <v>16.920000000000002</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="7">
+      <c r="A481">
         <v>34486</v>
       </c>
-      <c r="B481" s="5">
+      <c r="B481">
         <v>17.07</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="7">
+      <c r="A482">
         <v>34516</v>
       </c>
-      <c r="B482" s="4">
+      <c r="B482">
         <v>17.23</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="7">
+      <c r="A483">
         <v>34547</v>
       </c>
-      <c r="B483" s="5">
+      <c r="B483">
         <v>17.399999999999999</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="7">
+      <c r="A484">
         <v>34578</v>
       </c>
-      <c r="B484" s="4">
+      <c r="B484">
         <v>17.59</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="7">
+      <c r="A485">
         <v>34608</v>
       </c>
-      <c r="B485" s="5">
+      <c r="B485">
         <v>17.78</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="7">
+      <c r="A486">
         <v>34639</v>
       </c>
-      <c r="B486" s="4">
+      <c r="B486">
         <v>17.98</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="7">
+      <c r="A487">
         <v>34669</v>
       </c>
-      <c r="B487" s="5">
+      <c r="B487">
         <v>18.25</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="7">
+      <c r="A488">
         <v>34700</v>
       </c>
-      <c r="B488" s="4">
+      <c r="B488">
         <v>18.59</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="7">
+      <c r="A489">
         <v>34731</v>
       </c>
-      <c r="B489" s="5">
+      <c r="B489">
         <v>19.239999999999998</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="7">
+      <c r="A490">
         <v>34759</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490">
         <v>19.75</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="7">
+      <c r="A491">
         <v>34790</v>
       </c>
-      <c r="B491" s="5">
+      <c r="B491">
         <v>20.190000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="7">
+      <c r="A492">
         <v>34820</v>
       </c>
-      <c r="B492" s="4">
+      <c r="B492">
         <v>20.52</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="7">
+      <c r="A493">
         <v>34851</v>
       </c>
-      <c r="B493" s="5">
+      <c r="B493">
         <v>20.77</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="7">
+      <c r="A494">
         <v>34881</v>
       </c>
-      <c r="B494" s="4">
+      <c r="B494">
         <v>20.93</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="7">
+      <c r="A495">
         <v>34912</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495">
         <v>21.07</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="7">
+      <c r="A496">
         <v>34943</v>
       </c>
-      <c r="B496" s="4">
+      <c r="B496">
         <v>21.24</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="7">
+      <c r="A497">
         <v>34973</v>
       </c>
-      <c r="B497" s="5">
+      <c r="B497">
         <v>21.43</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="7">
+      <c r="A498">
         <v>35004</v>
       </c>
-      <c r="B498" s="4">
+      <c r="B498">
         <v>21.6</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="7">
+      <c r="A499">
         <v>35034</v>
       </c>
-      <c r="B499" s="5">
+      <c r="B499">
         <v>21.8</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="7">
+      <c r="A500">
         <v>35065</v>
       </c>
-      <c r="B500" s="4">
+      <c r="B500">
         <v>22.35</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="7">
+      <c r="A501">
         <v>35096</v>
       </c>
-      <c r="B501" s="5">
+      <c r="B501">
         <v>23.25</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="7">
+      <c r="A502">
         <v>35125</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502">
         <v>23.74</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="7">
+      <c r="A503">
         <v>35156</v>
       </c>
-      <c r="B503" s="5">
+      <c r="B503">
         <v>24.21</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="7">
+      <c r="A504">
         <v>35186</v>
       </c>
-      <c r="B504" s="4">
+      <c r="B504">
         <v>24.58</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="7">
+      <c r="A505">
         <v>35217</v>
       </c>
-      <c r="B505" s="5">
+      <c r="B505">
         <v>24.87</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="7">
+      <c r="A506">
         <v>35247</v>
       </c>
-      <c r="B506" s="4">
+      <c r="B506">
         <v>25.24</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="7">
+      <c r="A507">
         <v>35278</v>
       </c>
-      <c r="B507" s="5">
+      <c r="B507">
         <v>25.52</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="7">
+      <c r="A508">
         <v>35309</v>
       </c>
-      <c r="B508" s="4">
+      <c r="B508">
         <v>25.82</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="7">
+      <c r="A509">
         <v>35339</v>
       </c>
-      <c r="B509" s="5">
+      <c r="B509">
         <v>26.12</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="7">
+      <c r="A510">
         <v>35370</v>
       </c>
-      <c r="B510" s="4">
+      <c r="B510">
         <v>26.33</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="7">
+      <c r="A511">
         <v>35400</v>
       </c>
-      <c r="B511" s="5">
+      <c r="B511">
         <v>26.52</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="7">
+      <c r="A512">
         <v>35431</v>
       </c>
-      <c r="B512" s="4">
+      <c r="B512">
         <v>26.96</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="7">
+      <c r="A513">
         <v>35462</v>
       </c>
-      <c r="B513" s="5">
+      <c r="B513">
         <v>27.8</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="7">
+      <c r="A514">
         <v>35490</v>
       </c>
-      <c r="B514" s="4">
+      <c r="B514">
         <v>28.23</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="7">
+      <c r="A515">
         <v>35521</v>
       </c>
-      <c r="B515" s="5">
+      <c r="B515">
         <v>28.69</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="7">
+      <c r="A516">
         <v>35551</v>
       </c>
-      <c r="B516" s="4">
+      <c r="B516">
         <v>29.16</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="7">
+      <c r="A517">
         <v>35582</v>
       </c>
-      <c r="B517" s="5">
+      <c r="B517">
         <v>29.51</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="7">
+      <c r="A518">
         <v>35612</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518">
         <v>29.76</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="7">
+      <c r="A519">
         <v>35643</v>
       </c>
-      <c r="B519" s="5">
+      <c r="B519">
         <v>30.1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="7">
+      <c r="A520">
         <v>35674</v>
       </c>
-      <c r="B520" s="4">
+      <c r="B520">
         <v>30.48</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="7">
+      <c r="A521">
         <v>35704</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521">
         <v>30.77</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="7">
+      <c r="A522">
         <v>35735</v>
       </c>
-      <c r="B522" s="4">
+      <c r="B522">
         <v>31.02</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="7">
+      <c r="A523">
         <v>35765</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523">
         <v>31.21</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="7">
+      <c r="A524">
         <v>35796</v>
       </c>
-      <c r="B524" s="4">
+      <c r="B524">
         <v>31.77</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="7">
+      <c r="A525">
         <v>35827</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525">
         <v>32.81</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="7">
+      <c r="A526">
         <v>35855</v>
       </c>
-      <c r="B526" s="4">
+      <c r="B526">
         <v>33.67</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="7">
+      <c r="A527">
         <v>35886</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527">
         <v>34.65</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="7">
+      <c r="A528">
         <v>35916</v>
       </c>
-      <c r="B528" s="4">
+      <c r="B528">
         <v>35.19</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="7">
+      <c r="A529">
         <v>35947</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529">
         <v>35.619999999999997</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="7">
+      <c r="A530">
         <v>35977</v>
       </c>
-      <c r="B530" s="4">
+      <c r="B530">
         <v>35.79</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="7">
+      <c r="A531">
         <v>36008</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531">
         <v>35.799999999999997</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="7">
+      <c r="A532">
         <v>36039</v>
       </c>
-      <c r="B532" s="4">
+      <c r="B532">
         <v>35.9</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="7">
+      <c r="A533">
         <v>36069</v>
       </c>
-      <c r="B533" s="5">
+      <c r="B533">
         <v>36.03</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="7">
+      <c r="A534">
         <v>36100</v>
       </c>
-      <c r="B534" s="4">
+      <c r="B534">
         <v>36.1</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="7">
+      <c r="A535">
         <v>36130</v>
       </c>
-      <c r="B535" s="5">
+      <c r="B535">
         <v>36.42</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="7">
+      <c r="A536">
         <v>36161</v>
       </c>
-      <c r="B536" s="4">
+      <c r="B536">
         <v>37.229999999999997</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="7">
+      <c r="A537">
         <v>36192</v>
       </c>
-      <c r="B537" s="5">
+      <c r="B537">
         <v>37.86</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="7">
+      <c r="A538">
         <v>36220</v>
       </c>
-      <c r="B538" s="4">
+      <c r="B538">
         <v>38.22</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="7">
+      <c r="A539">
         <v>36251</v>
       </c>
-      <c r="B539" s="5">
+      <c r="B539">
         <v>38.520000000000003</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="7">
+      <c r="A540">
         <v>36281</v>
       </c>
-      <c r="B540" s="4">
+      <c r="B540">
         <v>38.700000000000003</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="7">
+      <c r="A541">
         <v>36312</v>
       </c>
-      <c r="B541" s="5">
+      <c r="B541">
         <v>38.81</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="7">
+      <c r="A542">
         <v>36342</v>
       </c>
-      <c r="B542" s="4">
+      <c r="B542">
         <v>38.93</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="7">
+      <c r="A543">
         <v>36373</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543">
         <v>39.119999999999997</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="7">
+      <c r="A544">
         <v>36404</v>
       </c>
-      <c r="B544" s="4">
+      <c r="B544">
         <v>39.25</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="7">
+      <c r="A545">
         <v>36434</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545">
         <v>39.39</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="7">
+      <c r="A546">
         <v>36465</v>
       </c>
-      <c r="B546" s="4">
+      <c r="B546">
         <v>39.58</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="7">
+      <c r="A547">
         <v>36495</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547">
         <v>39.79</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="7">
+      <c r="A548">
         <v>36526</v>
       </c>
-      <c r="B548" s="4">
+      <c r="B548">
         <v>40.299999999999997</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="7">
+      <c r="A549">
         <v>36557</v>
       </c>
-      <c r="B549" s="5">
+      <c r="B549">
         <v>41.23</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="7">
+      <c r="A550">
         <v>36586</v>
       </c>
-      <c r="B550" s="4">
+      <c r="B550">
         <v>41.93</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="7">
+      <c r="A551">
         <v>36617</v>
       </c>
-      <c r="B551" s="5">
+      <c r="B551">
         <v>42.35</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="7">
+      <c r="A552">
         <v>36647</v>
       </c>
-      <c r="B552" s="4">
+      <c r="B552">
         <v>42.57</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="7">
+      <c r="A553">
         <v>36678</v>
       </c>
-      <c r="B553" s="5">
+      <c r="B553">
         <v>42.56</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="7">
+      <c r="A554">
         <v>36708</v>
       </c>
-      <c r="B554" s="4">
+      <c r="B554">
         <v>42.55</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="7">
+      <c r="A555">
         <v>36739</v>
       </c>
-      <c r="B555" s="5">
+      <c r="B555">
         <v>42.68</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="7">
+      <c r="A556">
         <v>36770</v>
       </c>
-      <c r="B556" s="4">
+      <c r="B556">
         <v>42.86</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="7">
+      <c r="A557">
         <v>36800</v>
       </c>
-      <c r="B557" s="5">
+      <c r="B557">
         <v>42.93</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="7">
+      <c r="A558">
         <v>36831</v>
       </c>
-      <c r="B558" s="4">
+      <c r="B558">
         <v>43.07</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="7">
+      <c r="A559">
         <v>36861</v>
       </c>
-      <c r="B559" s="5">
+      <c r="B559">
         <v>43.27</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="7">
+      <c r="A560">
         <v>36892</v>
       </c>
-      <c r="B560" s="4">
+      <c r="B560">
         <v>43.72</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="7">
+      <c r="A561">
         <v>36923</v>
       </c>
-      <c r="B561" s="5">
+      <c r="B561">
         <v>44.55</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="7">
+      <c r="A562">
         <v>36951</v>
       </c>
-      <c r="B562" s="4">
+      <c r="B562">
         <v>45.21</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="7">
+      <c r="A563">
         <v>36982</v>
       </c>
-      <c r="B563" s="5">
+      <c r="B563">
         <v>45.73</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="7">
+      <c r="A564">
         <v>37012</v>
       </c>
-      <c r="B564" s="4">
+      <c r="B564">
         <v>45.92</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="7">
+      <c r="A565">
         <v>37043</v>
       </c>
-      <c r="B565" s="5">
+      <c r="B565">
         <v>45.94</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="7">
+      <c r="A566">
         <v>37073</v>
       </c>
-      <c r="B566" s="4">
+      <c r="B566">
         <v>45.99</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="7">
+      <c r="A567">
         <v>37104</v>
       </c>
-      <c r="B567" s="5">
+      <c r="B567">
         <v>46.11</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="7">
+      <c r="A568">
         <v>37135</v>
       </c>
-      <c r="B568" s="4">
+      <c r="B568">
         <v>46.28</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="7">
+      <c r="A569">
         <v>37165</v>
       </c>
-      <c r="B569" s="5">
+      <c r="B569">
         <v>46.37</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="7">
+      <c r="A570">
         <v>37196</v>
       </c>
-      <c r="B570" s="4">
+      <c r="B570">
         <v>46.42</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="7">
+      <c r="A571">
         <v>37226</v>
       </c>
-      <c r="B571" s="5">
+      <c r="B571">
         <v>46.58</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="7">
+      <c r="A572">
         <v>37257</v>
       </c>
-      <c r="B572" s="4">
+      <c r="B572">
         <v>46.95</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="7">
+      <c r="A573">
         <v>37288</v>
       </c>
-      <c r="B573" s="5">
+      <c r="B573">
         <v>47.54</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="7">
+      <c r="A574">
         <v>37316</v>
       </c>
-      <c r="B574" s="4">
+      <c r="B574">
         <v>47.87</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="7">
+      <c r="A575">
         <v>37347</v>
       </c>
-      <c r="B575" s="5">
+      <c r="B575">
         <v>48.31</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="7">
+      <c r="A576">
         <v>37377</v>
       </c>
-      <c r="B576" s="4">
+      <c r="B576">
         <v>48.6</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="7">
+      <c r="A577">
         <v>37408</v>
       </c>
-      <c r="B577" s="5">
+      <c r="B577">
         <v>48.81</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="7">
+      <c r="A578">
         <v>37438</v>
       </c>
-      <c r="B578" s="4">
+      <c r="B578">
         <v>48.82</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="7">
+      <c r="A579">
         <v>37469</v>
       </c>
-      <c r="B579" s="5">
+      <c r="B579">
         <v>48.87</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="7">
+      <c r="A580">
         <v>37500</v>
       </c>
-      <c r="B580" s="4">
+      <c r="B580">
         <v>49.04</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="7">
+      <c r="A581">
         <v>37530</v>
       </c>
-      <c r="B581" s="5">
+      <c r="B581">
         <v>49.32</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="7">
+      <c r="A582">
         <v>37561</v>
       </c>
-      <c r="B582" s="4">
+      <c r="B582">
         <v>49.7</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="7">
+      <c r="A583">
         <v>37591</v>
       </c>
-      <c r="B583" s="5">
+      <c r="B583">
         <v>49.83</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="7">
+      <c r="A584">
         <v>37622</v>
       </c>
-      <c r="B584" s="4">
+      <c r="B584">
         <v>50.42</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="7">
+      <c r="A585">
         <v>37653</v>
       </c>
-      <c r="B585" s="5">
+      <c r="B585">
         <v>50.98</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="7">
+      <c r="A586">
         <v>37681</v>
       </c>
-      <c r="B586" s="4">
+      <c r="B586">
         <v>51.51</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="7">
+      <c r="A587">
         <v>37712</v>
       </c>
-      <c r="B587" s="5">
+      <c r="B587">
         <v>52.1</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="7">
+      <c r="A588">
         <v>37742</v>
       </c>
-      <c r="B588" s="4">
+      <c r="B588">
         <v>52.36</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="7">
+      <c r="A589">
         <v>37773</v>
       </c>
-      <c r="B589" s="5">
+      <c r="B589">
         <v>52.33</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="7">
+      <c r="A590">
         <v>37803</v>
       </c>
-      <c r="B590" s="4">
+      <c r="B590">
         <v>52.26</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="7">
+      <c r="A591">
         <v>37834</v>
       </c>
-      <c r="B591" s="5">
+      <c r="B591">
         <v>52.42</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="7">
+      <c r="A592">
         <v>37865</v>
       </c>
-      <c r="B592" s="4">
+      <c r="B592">
         <v>52.53</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="7">
+      <c r="A593">
         <v>37895</v>
       </c>
-      <c r="B593" s="5">
+      <c r="B593">
         <v>52.56</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="7">
+      <c r="A594">
         <v>37926</v>
       </c>
-      <c r="B594" s="4">
+      <c r="B594">
         <v>52.75</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="7">
+      <c r="A595">
         <v>37956</v>
       </c>
-      <c r="B595" s="5">
+      <c r="B595">
         <v>53.07</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="7">
+      <c r="A596">
         <v>37987</v>
       </c>
-      <c r="B596" s="4">
+      <c r="B596">
         <v>53.54</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="7">
+      <c r="A597">
         <v>38018</v>
       </c>
-      <c r="B597" s="5">
+      <c r="B597">
         <v>54.18</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="7">
+      <c r="A598">
         <v>38047</v>
       </c>
-      <c r="B598" s="4">
+      <c r="B598">
         <v>54.71</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="7">
+      <c r="A599">
         <v>38078</v>
       </c>
-      <c r="B599" s="5">
+      <c r="B599">
         <v>54.96</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="7">
+      <c r="A600">
         <v>38108</v>
       </c>
-      <c r="B600" s="4">
+      <c r="B600">
         <v>55.17</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="7">
+      <c r="A601">
         <v>38139</v>
       </c>
-      <c r="B601" s="5">
+      <c r="B601">
         <v>55.51</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="7">
+      <c r="A602">
         <v>38169</v>
       </c>
-      <c r="B602" s="4">
+      <c r="B602">
         <v>55.49</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="7">
+      <c r="A603">
         <v>38200</v>
       </c>
-      <c r="B603" s="5">
+      <c r="B603">
         <v>55.51</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="7">
+      <c r="A604">
         <v>38231</v>
       </c>
-      <c r="B604" s="4">
+      <c r="B604">
         <v>55.67</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="7">
+      <c r="A605">
         <v>38261</v>
       </c>
-      <c r="B605" s="5">
+      <c r="B605">
         <v>55.66</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="7">
+      <c r="A606">
         <v>38292</v>
       </c>
-      <c r="B606" s="4">
+      <c r="B606">
         <v>55.82</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="7">
+      <c r="A607">
         <v>38322</v>
       </c>
-      <c r="B607" s="5">
+      <c r="B607">
         <v>55.99</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="7">
+      <c r="A608">
         <v>38353</v>
       </c>
-      <c r="B608" s="4">
+      <c r="B608">
         <v>56.45</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="7">
+      <c r="A609">
         <v>38384</v>
       </c>
-      <c r="B609" s="5">
+      <c r="B609">
         <v>57.02</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="7">
+      <c r="A610">
         <v>38412</v>
       </c>
-      <c r="B610" s="4">
+      <c r="B610">
         <v>57.46</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="7">
+      <c r="A611">
         <v>38443</v>
       </c>
-      <c r="B611" s="5">
+      <c r="B611">
         <v>57.72</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="7">
+      <c r="A612">
         <v>38473</v>
       </c>
-      <c r="B612" s="4">
+      <c r="B612">
         <v>57.95</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="7">
+      <c r="A613">
         <v>38504</v>
       </c>
-      <c r="B613" s="5">
+      <c r="B613">
         <v>58.18</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="7">
+      <c r="A614">
         <v>38534</v>
       </c>
-      <c r="B614" s="4">
+      <c r="B614">
         <v>58.21</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="7">
+      <c r="A615">
         <v>38565</v>
       </c>
-      <c r="B615" s="5">
+      <c r="B615">
         <v>58.21</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="7">
+      <c r="A616">
         <v>38596</v>
       </c>
-      <c r="B616" s="4">
+      <c r="B616">
         <v>58.46</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="7">
+      <c r="A617">
         <v>38626</v>
       </c>
-      <c r="B617" s="5">
+      <c r="B617">
         <v>58.6</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="7">
+      <c r="A618">
         <v>38657</v>
       </c>
-      <c r="B618" s="4">
+      <c r="B618">
         <v>58.66</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="7">
+      <c r="A619">
         <v>38687</v>
       </c>
-      <c r="B619" s="5">
+      <c r="B619">
         <v>58.7</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="7">
+      <c r="A620">
         <v>38718</v>
       </c>
-      <c r="B620" s="4">
+      <c r="B620">
         <v>59.02</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="7">
+      <c r="A621">
         <v>38749</v>
       </c>
-      <c r="B621" s="5">
+      <c r="B621">
         <v>59.41</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="7">
+      <c r="A622">
         <v>38777</v>
       </c>
-      <c r="B622" s="4">
+      <c r="B622">
         <v>59.83</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="7">
+      <c r="A623">
         <v>38808</v>
       </c>
-      <c r="B623" s="5">
+      <c r="B623">
         <v>60.09</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="7">
+      <c r="A624">
         <v>38838</v>
       </c>
-      <c r="B624" s="4">
+      <c r="B624">
         <v>60.29</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="7">
+      <c r="A625">
         <v>38869</v>
       </c>
-      <c r="B625" s="5">
+      <c r="B625">
         <v>60.48</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="7">
+      <c r="A626">
         <v>38899</v>
       </c>
-      <c r="B626" s="4">
+      <c r="B626">
         <v>60.73</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="7">
+      <c r="A627">
         <v>38930</v>
       </c>
-      <c r="B627" s="5">
+      <c r="B627">
         <v>60.96</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="7">
+      <c r="A628">
         <v>38961</v>
       </c>
-      <c r="B628" s="4">
+      <c r="B628">
         <v>61.14</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="7">
+      <c r="A629">
         <v>38991</v>
       </c>
-      <c r="B629" s="5">
+      <c r="B629">
         <v>61.05</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="7">
+      <c r="A630">
         <v>39022</v>
       </c>
-      <c r="B630" s="4">
+      <c r="B630">
         <v>61.19</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="7">
+      <c r="A631">
         <v>39052</v>
       </c>
-      <c r="B631" s="5">
+      <c r="B631">
         <v>61.33</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="7">
+      <c r="A632">
         <v>39083</v>
       </c>
-      <c r="B632" s="4">
+      <c r="B632">
         <v>61.8</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="7">
+      <c r="A633">
         <v>39114</v>
       </c>
-      <c r="B633" s="5">
+      <c r="B633">
         <v>62.53</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="7">
+      <c r="A634">
         <v>39142</v>
       </c>
-      <c r="B634" s="4">
+      <c r="B634">
         <v>63.29</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="7">
+      <c r="A635">
         <v>39173</v>
       </c>
-      <c r="B635" s="5">
+      <c r="B635">
         <v>63.85</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="7">
+      <c r="A636">
         <v>39203</v>
       </c>
-      <c r="B636" s="4">
+      <c r="B636">
         <v>64.05</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="7">
+      <c r="A637">
         <v>39234</v>
       </c>
-      <c r="B637" s="5">
+      <c r="B637">
         <v>64.12</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="7">
+      <c r="A638">
         <v>39264</v>
       </c>
-      <c r="B638" s="4">
+      <c r="B638">
         <v>64.23</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="7">
+      <c r="A639">
         <v>39295</v>
       </c>
-      <c r="B639" s="5">
+      <c r="B639">
         <v>64.14</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="7">
+      <c r="A640">
         <v>39326</v>
       </c>
-      <c r="B640" s="4">
+      <c r="B640">
         <v>64.2</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="7">
+      <c r="A641">
         <v>39356</v>
       </c>
-      <c r="B641" s="5">
+      <c r="B641">
         <v>64.2</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="7">
+      <c r="A642">
         <v>39387</v>
       </c>
-      <c r="B642" s="4">
+      <c r="B642">
         <v>64.510000000000005</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="7">
+      <c r="A643">
         <v>39417</v>
       </c>
-      <c r="B643" s="5">
+      <c r="B643">
         <v>64.819999999999993</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="7">
+      <c r="A644">
         <v>39448</v>
       </c>
-      <c r="B644" s="4">
+      <c r="B644">
         <v>65.510000000000005</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="7">
+      <c r="A645">
         <v>39479</v>
       </c>
-      <c r="B645" s="5">
+      <c r="B645">
         <v>66.5</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="7">
+      <c r="A646">
         <v>39508</v>
       </c>
-      <c r="B646" s="4">
+      <c r="B646">
         <v>67.040000000000006</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="7">
+      <c r="A647">
         <v>39539</v>
       </c>
-      <c r="B647" s="5">
+      <c r="B647">
         <v>67.510000000000005</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="7">
+      <c r="A648">
         <v>39569</v>
       </c>
-      <c r="B648" s="4">
+      <c r="B648">
         <v>68.14</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" s="7">
+      <c r="A649">
         <v>39600</v>
       </c>
-      <c r="B649" s="5">
+      <c r="B649">
         <v>68.73</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="7">
+      <c r="A650">
         <v>39630</v>
       </c>
-      <c r="B650" s="4">
+      <c r="B650">
         <v>69.06</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="7">
+      <c r="A651">
         <v>39661</v>
       </c>
-      <c r="B651" s="5">
+      <c r="B651">
         <v>69.19</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="7">
+      <c r="A652">
         <v>39692</v>
       </c>
-      <c r="B652" s="4">
+      <c r="B652">
         <v>69.06</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="7">
+      <c r="A653">
         <v>39722</v>
       </c>
-      <c r="B653" s="5">
+      <c r="B653">
         <v>69.3</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" s="7">
+      <c r="A654">
         <v>39753</v>
       </c>
-      <c r="B654" s="4">
+      <c r="B654">
         <v>69.489999999999995</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="7">
+      <c r="A655">
         <v>39783</v>
       </c>
-      <c r="B655" s="5">
+      <c r="B655">
         <v>69.8</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" s="7">
+      <c r="A656">
         <v>39814</v>
       </c>
-      <c r="B656" s="4">
+      <c r="B656">
         <v>70.209999999999994</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="7">
+      <c r="A657">
         <v>39845</v>
       </c>
-      <c r="B657" s="5">
+      <c r="B657">
         <v>70.8</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="7">
+      <c r="A658">
         <v>39873</v>
       </c>
-      <c r="B658" s="4">
+      <c r="B658">
         <v>71.150000000000006</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="7">
+      <c r="A659">
         <v>39904</v>
       </c>
-      <c r="B659" s="5">
+      <c r="B659">
         <v>71.38</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="7">
+      <c r="A660">
         <v>39934</v>
       </c>
-      <c r="B660" s="4">
+      <c r="B660">
         <v>71.39</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="7">
+      <c r="A661">
         <v>39965</v>
       </c>
-      <c r="B661" s="5">
+      <c r="B661">
         <v>71.349999999999994</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="7">
+      <c r="A662">
         <v>39995</v>
       </c>
-      <c r="B662" s="4">
+      <c r="B662">
         <v>71.319999999999993</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="7">
+      <c r="A663">
         <v>40026</v>
       </c>
-      <c r="B663" s="5">
+      <c r="B663">
         <v>71.349999999999994</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" s="7">
+      <c r="A664">
         <v>40057</v>
       </c>
-      <c r="B664" s="4">
+      <c r="B664">
         <v>71.28</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" s="7">
+      <c r="A665">
         <v>40087</v>
       </c>
-      <c r="B665" s="5">
+      <c r="B665">
         <v>71.19</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" s="7">
+      <c r="A666">
         <v>40118</v>
       </c>
-      <c r="B666" s="4">
+      <c r="B666">
         <v>71.14</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" s="7">
+      <c r="A667">
         <v>40148</v>
       </c>
-      <c r="B667" s="5">
+      <c r="B667">
         <v>71.2</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" s="7">
+      <c r="A668">
         <v>40179</v>
       </c>
-      <c r="B668" s="4">
+      <c r="B668">
         <v>71.69</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" s="7">
+      <c r="A669">
         <v>40210</v>
       </c>
-      <c r="B669" s="5">
+      <c r="B669">
         <v>72.28</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" s="7">
+      <c r="A670">
         <v>40238</v>
       </c>
-      <c r="B670" s="4">
+      <c r="B670">
         <v>72.459999999999994</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" s="7">
+      <c r="A671">
         <v>40269</v>
       </c>
-      <c r="B671" s="5">
+      <c r="B671">
         <v>72.790000000000006</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" s="7">
+      <c r="A672">
         <v>40299</v>
       </c>
-      <c r="B672" s="4">
+      <c r="B672">
         <v>72.87</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="7">
+      <c r="A673">
         <v>40330</v>
       </c>
-      <c r="B673" s="5">
+      <c r="B673">
         <v>72.95</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="7">
+      <c r="A674">
         <v>40360</v>
       </c>
-      <c r="B674" s="4">
+      <c r="B674">
         <v>72.92</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="7">
+      <c r="A675">
         <v>40391</v>
       </c>
-      <c r="B675" s="5">
+      <c r="B675">
         <v>73</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="7">
+      <c r="A676">
         <v>40422</v>
       </c>
-      <c r="B676" s="4">
+      <c r="B676">
         <v>72.900000000000006</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="7">
+      <c r="A677">
         <v>40452</v>
       </c>
-      <c r="B677" s="5">
+      <c r="B677">
         <v>72.84</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="7">
+      <c r="A678">
         <v>40483</v>
       </c>
-      <c r="B678" s="4">
+      <c r="B678">
         <v>72.98</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="7">
+      <c r="A679">
         <v>40513</v>
       </c>
-      <c r="B679" s="5">
+      <c r="B679">
         <v>73.45</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="7">
+      <c r="A680">
         <v>40544</v>
       </c>
-      <c r="B680" s="4">
+      <c r="B680">
         <v>74.12</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="7">
+      <c r="A681">
         <v>40575</v>
       </c>
-      <c r="B681" s="5">
+      <c r="B681">
         <v>74.569999999999993</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="7">
+      <c r="A682">
         <v>40603</v>
       </c>
-      <c r="B682" s="4">
+      <c r="B682">
         <v>74.77</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="7">
+      <c r="A683">
         <v>40634</v>
       </c>
-      <c r="B683" s="5">
+      <c r="B683">
         <v>74.86</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="7">
+      <c r="A684">
         <v>40664</v>
       </c>
-      <c r="B684" s="4">
+      <c r="B684">
         <v>75.069999999999993</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="7">
+      <c r="A685">
         <v>40695</v>
       </c>
-      <c r="B685" s="5">
+      <c r="B685">
         <v>75.31</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="7">
+      <c r="A686">
         <v>40725</v>
       </c>
-      <c r="B686" s="4">
+      <c r="B686">
         <v>75.42</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="7">
+      <c r="A687">
         <v>40756</v>
       </c>
-      <c r="B687" s="5">
+      <c r="B687">
         <v>75.39</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="7">
+      <c r="A688">
         <v>40787</v>
       </c>
-      <c r="B688" s="4">
+      <c r="B688">
         <v>75.62</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="7">
+      <c r="A689">
         <v>40817</v>
       </c>
-      <c r="B689" s="5">
+      <c r="B689">
         <v>75.77</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="7">
+      <c r="A690">
         <v>40848</v>
       </c>
-      <c r="B690" s="4">
+      <c r="B690">
         <v>75.87</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="7">
+      <c r="A691">
         <v>40878</v>
       </c>
-      <c r="B691" s="5">
+      <c r="B691">
         <v>76.19</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="7">
+      <c r="A692">
         <v>40909</v>
       </c>
-      <c r="B692" s="4">
+      <c r="B692">
         <v>76.75</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="7">
+      <c r="A693">
         <v>40940</v>
       </c>
-      <c r="B693" s="5">
+      <c r="B693">
         <v>77.22</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="7">
+      <c r="A694">
         <v>40969</v>
       </c>
-      <c r="B694" s="4">
+      <c r="B694">
         <v>77.31</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="7">
+      <c r="A695">
         <v>41000</v>
       </c>
-      <c r="B695" s="5">
+      <c r="B695">
         <v>77.42</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="7">
+      <c r="A696">
         <v>41030</v>
       </c>
-      <c r="B696" s="4">
+      <c r="B696">
         <v>77.66</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="7">
+      <c r="A697">
         <v>41061</v>
       </c>
-      <c r="B697" s="5">
+      <c r="B697">
         <v>77.72</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="7">
+      <c r="A698">
         <v>41091</v>
       </c>
-      <c r="B698" s="4">
+      <c r="B698">
         <v>77.7</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="7">
+      <c r="A699">
         <v>41122</v>
       </c>
-      <c r="B699" s="5">
+      <c r="B699">
         <v>77.73</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="7">
+      <c r="A700">
         <v>41153</v>
       </c>
-      <c r="B700" s="4">
+      <c r="B700">
         <v>77.959999999999994</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="7">
+      <c r="A701">
         <v>41183</v>
       </c>
-      <c r="B701" s="5">
+      <c r="B701">
         <v>78.08</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="7">
+      <c r="A702">
         <v>41214</v>
       </c>
-      <c r="B702" s="4">
+      <c r="B702">
         <v>77.98</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="7">
+      <c r="A703">
         <v>41244</v>
       </c>
-      <c r="B703" s="5">
+      <c r="B703">
         <v>78.05</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="7">
+      <c r="A704">
         <v>41275</v>
       </c>
-      <c r="B704" s="4">
+      <c r="B704">
         <v>78.28</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="7">
+      <c r="A705">
         <v>41306</v>
       </c>
-      <c r="B705" s="5">
+      <c r="B705">
         <v>78.63</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="7">
+      <c r="A706">
         <v>41334</v>
       </c>
-      <c r="B706" s="4">
+      <c r="B706">
         <v>78.790000000000006</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="7">
+      <c r="A707">
         <v>41365</v>
       </c>
-      <c r="B707" s="5">
+      <c r="B707">
         <v>78.989999999999995</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="7">
+      <c r="A708">
         <v>41395</v>
       </c>
-      <c r="B708" s="4">
+      <c r="B708">
         <v>79.209999999999994</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="7">
+      <c r="A709">
         <v>41426</v>
       </c>
-      <c r="B709" s="5">
+      <c r="B709">
         <v>79.39</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="7">
+      <c r="A710">
         <v>41456</v>
       </c>
-      <c r="B710" s="4">
+      <c r="B710">
         <v>79.430000000000007</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="7">
+      <c r="A711">
         <v>41487</v>
       </c>
-      <c r="B711" s="5">
+      <c r="B711">
         <v>79.5</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="7">
+      <c r="A712">
         <v>41518</v>
       </c>
-      <c r="B712" s="4">
+      <c r="B712">
         <v>79.73</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="7">
+      <c r="A713">
         <v>41548</v>
       </c>
-      <c r="B713" s="5">
+      <c r="B713">
         <v>79.52</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="7">
+      <c r="A714">
         <v>41579</v>
       </c>
-      <c r="B714" s="4">
+      <c r="B714">
         <v>79.349999999999994</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="7">
+      <c r="A715">
         <v>41609</v>
       </c>
-      <c r="B715" s="5">
+      <c r="B715">
         <v>79.56</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="7">
+      <c r="A716">
         <v>41640</v>
       </c>
-      <c r="B716" s="4">
+      <c r="B716">
         <v>79.95</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="7">
+      <c r="A717">
         <v>41671</v>
       </c>
-      <c r="B717" s="5">
+      <c r="B717">
         <v>80.45</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="7">
+      <c r="A718">
         <v>41699</v>
       </c>
-      <c r="B718" s="4">
+      <c r="B718">
         <v>80.77</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="7">
+      <c r="A719">
         <v>41730</v>
       </c>
-      <c r="B719" s="5">
+      <c r="B719">
         <v>81.14</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="7">
+      <c r="A720">
         <v>41760</v>
       </c>
-      <c r="B720" s="4">
+      <c r="B720">
         <v>81.53</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="7">
+      <c r="A721">
         <v>41791</v>
       </c>
-      <c r="B721" s="5">
+      <c r="B721">
         <v>81.61</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="7">
+      <c r="A722">
         <v>41821</v>
       </c>
-      <c r="B722" s="4">
+      <c r="B722">
         <v>81.73</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="7">
+      <c r="A723">
         <v>41852</v>
       </c>
-      <c r="B723" s="5">
+      <c r="B723">
         <v>81.900000000000006</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="7">
+      <c r="A724">
         <v>41883</v>
       </c>
-      <c r="B724" s="4">
+      <c r="B724">
         <v>82.01</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="7">
+      <c r="A725">
         <v>41913</v>
       </c>
-      <c r="B725" s="5">
+      <c r="B725">
         <v>82.14</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="7">
+      <c r="A726">
         <v>41944</v>
       </c>
-      <c r="B726" s="4">
+      <c r="B726">
         <v>82.25</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="7">
+      <c r="A727">
         <v>41974</v>
       </c>
-      <c r="B727" s="5">
+      <c r="B727">
         <v>82.47</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="7">
+      <c r="A728">
         <v>42005</v>
       </c>
-      <c r="B728" s="4">
+      <c r="B728">
         <v>83</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="7">
+      <c r="A729">
         <v>42036</v>
       </c>
-      <c r="B729" s="5">
+      <c r="B729">
         <v>83.96</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="7">
+      <c r="A730">
         <v>42064</v>
       </c>
-      <c r="B730" s="4">
+      <c r="B730">
         <v>84.45</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="7">
+      <c r="A731">
         <v>42095</v>
       </c>
-      <c r="B731" s="5">
+      <c r="B731">
         <v>84.9</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="7">
+      <c r="A732">
         <v>42125</v>
       </c>
-      <c r="B732" s="4">
+      <c r="B732">
         <v>85.12</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="7">
+      <c r="A733">
         <v>42156</v>
       </c>
-      <c r="B733" s="5">
+      <c r="B733">
         <v>85.21</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="7">
+      <c r="A734">
         <v>42186</v>
       </c>
-      <c r="B734" s="4">
+      <c r="B734">
         <v>85.37</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="7">
+      <c r="A735">
         <v>42217</v>
       </c>
-      <c r="B735" s="5">
+      <c r="B735">
         <v>85.78</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="7">
+      <c r="A736">
         <v>42248</v>
       </c>
-      <c r="B736" s="4">
+      <c r="B736">
         <v>86.39</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="7">
+      <c r="A737">
         <v>42278</v>
       </c>
-      <c r="B737" s="5">
+      <c r="B737">
         <v>86.98</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="7">
+      <c r="A738">
         <v>42309</v>
       </c>
-      <c r="B738" s="4">
+      <c r="B738">
         <v>87.51</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="7">
+      <c r="A739">
         <v>42339</v>
       </c>
-      <c r="B739" s="5">
+      <c r="B739">
         <v>88.05</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="7">
+      <c r="A740">
         <v>42370</v>
       </c>
-      <c r="B740" s="4">
+      <c r="B740">
         <v>89.19</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="7">
+      <c r="A741">
         <v>42401</v>
       </c>
-      <c r="B741" s="5">
+      <c r="B741">
         <v>90.33</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="7">
+      <c r="A742">
         <v>42430</v>
       </c>
-      <c r="B742" s="4">
+      <c r="B742">
         <v>91.18</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="7">
+      <c r="A743">
         <v>42461</v>
       </c>
-      <c r="B743" s="5">
+      <c r="B743">
         <v>91.63</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="7">
+      <c r="A744">
         <v>42491</v>
       </c>
-      <c r="B744" s="4">
+      <c r="B744">
         <v>92.1</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="7">
+      <c r="A745">
         <v>42522</v>
       </c>
-      <c r="B745" s="5">
+      <c r="B745">
         <v>92.54</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="7">
+      <c r="A746">
         <v>42552</v>
       </c>
-      <c r="B746" s="4">
+      <c r="B746">
         <v>93.02</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="7">
+      <c r="A747">
         <v>42583</v>
       </c>
-      <c r="B747" s="5">
+      <c r="B747">
         <v>92.73</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="7">
+      <c r="A748">
         <v>42614</v>
       </c>
-      <c r="B748" s="4">
+      <c r="B748">
         <v>92.68</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="7">
+      <c r="A749">
         <v>42644</v>
       </c>
-      <c r="B749" s="5">
+      <c r="B749">
         <v>92.62</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="7">
+      <c r="A750">
         <v>42675</v>
       </c>
-      <c r="B750" s="4">
+      <c r="B750">
         <v>92.73</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="7">
+      <c r="A751">
         <v>42705</v>
       </c>
-      <c r="B751" s="5">
+      <c r="B751">
         <v>93.11</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="7">
+      <c r="A752">
         <v>42736</v>
       </c>
-      <c r="B752" s="4">
+      <c r="B752">
         <v>94.07</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="7">
+      <c r="A753">
         <v>42767</v>
       </c>
-      <c r="B753" s="5">
+      <c r="B753">
         <v>95.01</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="7">
+      <c r="A754">
         <v>42795</v>
       </c>
-      <c r="B754" s="4">
+      <c r="B754">
         <v>95.46</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="7">
+      <c r="A755">
         <v>42826</v>
       </c>
-      <c r="B755" s="5">
+      <c r="B755">
         <v>95.91</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="7">
+      <c r="A756">
         <v>42856</v>
       </c>
-      <c r="B756" s="4">
+      <c r="B756">
         <v>96.12</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="7">
+      <c r="A757">
         <v>42887</v>
       </c>
-      <c r="B757" s="5">
+      <c r="B757">
         <v>96.23</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="7">
+      <c r="A758">
         <v>42917</v>
       </c>
-      <c r="B758" s="4">
+      <c r="B758">
         <v>96.18</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="7">
+      <c r="A759">
         <v>42948</v>
       </c>
-      <c r="B759" s="5">
+      <c r="B759">
         <v>96.32</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="7">
+      <c r="A760">
         <v>42979</v>
       </c>
-      <c r="B760" s="4">
+      <c r="B760">
         <v>96.36</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="7">
+      <c r="A761">
         <v>43009</v>
       </c>
-      <c r="B761" s="5">
+      <c r="B761">
         <v>96.37</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="7">
+      <c r="A762">
         <v>43040</v>
       </c>
-      <c r="B762" s="4">
+      <c r="B762">
         <v>96.55</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" s="7">
+      <c r="A763">
         <v>43070</v>
       </c>
-      <c r="B763" s="5">
+      <c r="B763">
         <v>96.92</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" s="7">
+      <c r="A764">
         <v>43101</v>
       </c>
-      <c r="B764" s="4">
+      <c r="B764">
         <v>97.53</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" s="7">
+      <c r="A765">
         <v>43132</v>
       </c>
-      <c r="B765" s="5">
+      <c r="B765">
         <v>98.22</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" s="7">
+      <c r="A766">
         <v>43160</v>
       </c>
-      <c r="B766" s="4">
+      <c r="B766">
         <v>98.45</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" s="7">
+      <c r="A767">
         <v>43191</v>
       </c>
-      <c r="B767" s="5">
+      <c r="B767">
         <v>98.91</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" s="7">
+      <c r="A768">
         <v>43221</v>
       </c>
-      <c r="B768" s="4">
+      <c r="B768">
         <v>99.16</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" s="7">
+      <c r="A769">
         <v>43252</v>
       </c>
-      <c r="B769" s="5">
+      <c r="B769">
         <v>99.31</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" s="7">
+      <c r="A770">
         <v>43282</v>
       </c>
-      <c r="B770" s="4">
+      <c r="B770">
         <v>99.18</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" s="7">
+      <c r="A771">
         <v>43313</v>
       </c>
-      <c r="B771" s="5">
+      <c r="B771">
         <v>99.3</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" s="7">
+      <c r="A772">
         <v>43344</v>
       </c>
-      <c r="B772" s="4">
+      <c r="B772">
         <v>99.47</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" s="7">
+      <c r="A773">
         <v>43374</v>
       </c>
-      <c r="B773" s="5">
+      <c r="B773">
         <v>99.59</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" s="9">
+      <c r="A774">
         <v>43405</v>
       </c>
-      <c r="B774" s="6">
+      <c r="B774">
         <v>99.7</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" s="7">
+      <c r="A775">
         <v>43435</v>
       </c>
-      <c r="B775" s="5">
+      <c r="B775">
         <v>100</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" s="7">
+      <c r="A776">
         <v>43466</v>
       </c>
-      <c r="B776" s="4">
+      <c r="B776">
         <v>100.6</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" s="7">
+      <c r="A777">
         <v>43497</v>
       </c>
-      <c r="B777" s="5">
+      <c r="B777">
         <v>101.18</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" s="7">
+      <c r="A778">
         <v>43525</v>
       </c>
-      <c r="B778" s="4">
+      <c r="B778">
         <v>101.62</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" s="7">
+      <c r="A779">
         <v>43556</v>
       </c>
-      <c r="B779" s="5">
+      <c r="B779">
         <v>102.12</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" s="7">
+      <c r="A780">
         <v>43586</v>
       </c>
-      <c r="B780" s="4">
+      <c r="B780">
         <v>102.44</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" s="7">
+      <c r="A781">
         <v>43617</v>
       </c>
-      <c r="B781" s="5">
+      <c r="B781">
         <v>102.71</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" s="7">
+      <c r="A782">
         <v>43647</v>
       </c>
-      <c r="B782" s="4">
+      <c r="B782">
         <v>102.94</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" s="7">
+      <c r="A783">
         <v>43678</v>
       </c>
-      <c r="B783" s="5">
+      <c r="B783">
         <v>103.03</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="7">
+      <c r="A784">
         <v>43709</v>
       </c>
-      <c r="B784" s="4">
+      <c r="B784">
         <v>103.26</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" s="7">
+      <c r="A785">
         <v>43739</v>
       </c>
-      <c r="B785" s="5">
+      <c r="B785">
         <v>103.43</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" s="7">
+      <c r="A786">
         <v>43770</v>
       </c>
-      <c r="B786" s="4">
+      <c r="B786">
         <v>103.54</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="7">
+      <c r="A787">
         <v>43800</v>
       </c>
-      <c r="B787" s="5">
+      <c r="B787">
         <v>103.8</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" s="7">
+      <c r="A788">
         <v>43831</v>
       </c>
-      <c r="B788" s="4">
+      <c r="B788">
         <v>104.24</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" s="7">
+      <c r="A789">
         <v>43862</v>
       </c>
-      <c r="B789" s="5">
+      <c r="B789">
         <v>104.94</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" s="7">
+      <c r="A790">
         <v>43891</v>
       </c>
-      <c r="B790" s="4">
+      <c r="B790">
         <v>105.53</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" s="7">
+      <c r="A791">
         <v>43922</v>
       </c>
-      <c r="B791" s="5">
+      <c r="B791">
         <v>105.7</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" s="7">
+      <c r="A792">
         <v>43952</v>
       </c>
-      <c r="B792" s="4">
+      <c r="B792">
         <v>105.36</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" s="7">
+      <c r="A793">
         <v>43983</v>
       </c>
-      <c r="B793" s="5">
+      <c r="B793">
         <v>104.97</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" s="7">
+      <c r="A794">
         <v>44013</v>
       </c>
-      <c r="B794" s="4">
+      <c r="B794">
         <v>104.97</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" s="7">
+      <c r="A795">
         <v>44044</v>
       </c>
-      <c r="B795" s="5">
+      <c r="B795">
         <v>104.96</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" s="7">
+      <c r="A796">
         <v>44075</v>
       </c>
-      <c r="B796" s="4">
+      <c r="B796">
         <v>105.29</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" s="7">
+      <c r="A797">
         <v>44105</v>
       </c>
-      <c r="B797" s="5">
+      <c r="B797">
         <v>105.23</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" s="7">
+      <c r="A798">
         <v>44136</v>
       </c>
-      <c r="B798" s="4">
+      <c r="B798">
         <v>105.08</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" s="7">
+      <c r="A799">
         <v>44166</v>
       </c>
-      <c r="B799" s="5">
+      <c r="B799">
         <v>105.48</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" s="7">
+      <c r="A800">
         <v>44197</v>
       </c>
-      <c r="B800" s="4">
+      <c r="B800">
         <v>105.91</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" s="7">
+      <c r="A801">
         <v>44228</v>
       </c>
-      <c r="B801" s="5">
+      <c r="B801">
         <v>106.58</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="7">
+      <c r="A802">
         <v>44256</v>
       </c>
-      <c r="B802" s="4">
+      <c r="B802">
         <v>107.12</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="7">
+      <c r="A803">
         <v>44287</v>
       </c>
-      <c r="B803" s="5">
+      <c r="B803">
         <v>107.76</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="7">
+      <c r="A804">
         <v>44317</v>
       </c>
-      <c r="B804" s="4">
+      <c r="B804">
         <v>108.84</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="7">
+      <c r="A805">
         <v>44348</v>
       </c>
-      <c r="B805" s="5">
+      <c r="B805">
         <v>108.78</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="7">
+      <c r="A806">
         <v>44378</v>
       </c>
-      <c r="B806" s="4">
+      <c r="B806">
         <v>109.14</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="9">
+      <c r="A807">
         <v>44409</v>
       </c>
-      <c r="B807" s="6">
+      <c r="B807">
         <v>109.62</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" s="7">
+      <c r="A808">
         <v>44440</v>
       </c>
-      <c r="B808" s="4">
+      <c r="B808">
         <v>110.04</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" s="7">
+      <c r="A809">
         <v>44470</v>
       </c>
-      <c r="B809" s="5">
+      <c r="B809">
         <v>110.06</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="7">
+      <c r="A810">
         <v>44501</v>
       </c>
-      <c r="B810" s="4">
+      <c r="B810">
         <v>110.6</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="7">
+      <c r="A811">
         <v>44531</v>
       </c>
-      <c r="B811" s="5">
+      <c r="B811">
         <v>111.41</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="7">
+      <c r="A812">
         <v>44562</v>
       </c>
-      <c r="B812" s="4">
+      <c r="B812">
         <v>113.26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CalculadoraDeflactorIPC.xlsx
+++ b/CalculadoraDeflactorIPC.xlsx
@@ -36,6 +36,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,12 +64,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,13 +370,16 @@
   <dimension ref="A1:B812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -364,7 +387,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>19906</v>
       </c>
       <c r="B2">
@@ -372,7 +395,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>19937</v>
       </c>
       <c r="B3">
@@ -380,7 +403,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>19968</v>
       </c>
       <c r="B4">
@@ -388,7 +411,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>19998</v>
       </c>
       <c r="B5">
@@ -396,7 +419,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>20029</v>
       </c>
       <c r="B6">
@@ -404,7 +427,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>20059</v>
       </c>
       <c r="B7">
@@ -412,7 +435,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>20090</v>
       </c>
       <c r="B8">
@@ -420,7 +443,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>20121</v>
       </c>
       <c r="B9">
@@ -428,7 +451,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>20149</v>
       </c>
       <c r="B10">
@@ -436,7 +459,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>20180</v>
       </c>
       <c r="B11">
@@ -444,7 +467,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>20210</v>
       </c>
       <c r="B12">
@@ -452,7 +475,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>20241</v>
       </c>
       <c r="B13">
@@ -460,7 +483,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>20271</v>
       </c>
       <c r="B14">
@@ -468,7 +491,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>20302</v>
       </c>
       <c r="B15">
@@ -476,7 +499,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>20333</v>
       </c>
       <c r="B16">
@@ -484,7 +507,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>20363</v>
       </c>
       <c r="B17">
@@ -492,7 +515,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>20394</v>
       </c>
       <c r="B18">
@@ -500,7 +523,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>20424</v>
       </c>
       <c r="B19">
@@ -508,7 +531,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>20455</v>
       </c>
       <c r="B20">
@@ -516,7 +539,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20486</v>
       </c>
       <c r="B21">
@@ -524,7 +547,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>20515</v>
       </c>
       <c r="B22">
@@ -532,7 +555,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>20546</v>
       </c>
       <c r="B23">
@@ -540,7 +563,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>20576</v>
       </c>
       <c r="B24">
@@ -548,7 +571,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>20607</v>
       </c>
       <c r="B25">
@@ -556,7 +579,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>20637</v>
       </c>
       <c r="B26">
@@ -564,7 +587,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>20668</v>
       </c>
       <c r="B27">
@@ -572,7 +595,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>20699</v>
       </c>
       <c r="B28">
@@ -580,7 +603,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>20729</v>
       </c>
       <c r="B29">
@@ -588,7 +611,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>20760</v>
       </c>
       <c r="B30">
@@ -596,7 +619,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>20790</v>
       </c>
       <c r="B31">
@@ -604,7 +627,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>20821</v>
       </c>
       <c r="B32">
@@ -612,7 +635,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>20852</v>
       </c>
       <c r="B33">
@@ -620,7 +643,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>20880</v>
       </c>
       <c r="B34">
@@ -628,7 +651,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>20911</v>
       </c>
       <c r="B35">
@@ -636,7 +659,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>20941</v>
       </c>
       <c r="B36">
@@ -644,7 +667,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>20972</v>
       </c>
       <c r="B37">
@@ -652,7 +675,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>21002</v>
       </c>
       <c r="B38">
@@ -660,7 +683,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>21033</v>
       </c>
       <c r="B39">
@@ -668,7 +691,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>21064</v>
       </c>
       <c r="B40">
@@ -676,7 +699,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>21094</v>
       </c>
       <c r="B41">
@@ -684,7 +707,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>21125</v>
       </c>
       <c r="B42">
@@ -692,7 +715,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>21155</v>
       </c>
       <c r="B43">
@@ -700,7 +723,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>21186</v>
       </c>
       <c r="B44">
@@ -708,7 +731,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>21217</v>
       </c>
       <c r="B45">
@@ -716,7 +739,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>21245</v>
       </c>
       <c r="B46">
@@ -724,7 +747,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>21276</v>
       </c>
       <c r="B47">
@@ -732,7 +755,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>21306</v>
       </c>
       <c r="B48">
@@ -740,7 +763,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>21337</v>
       </c>
       <c r="B49">
@@ -748,7 +771,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>21367</v>
       </c>
       <c r="B50">
@@ -756,7 +779,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>21398</v>
       </c>
       <c r="B51">
@@ -764,7 +787,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>21429</v>
       </c>
       <c r="B52">
@@ -772,7 +795,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>21459</v>
       </c>
       <c r="B53">
@@ -780,7 +803,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>21490</v>
       </c>
       <c r="B54">
@@ -788,7 +811,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>21520</v>
       </c>
       <c r="B55">
@@ -796,7 +819,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>21551</v>
       </c>
       <c r="B56">
@@ -804,7 +827,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>21582</v>
       </c>
       <c r="B57">
@@ -812,7 +835,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>21610</v>
       </c>
       <c r="B58">
@@ -820,7 +843,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>21641</v>
       </c>
       <c r="B59">
@@ -828,7 +851,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>21671</v>
       </c>
       <c r="B60">
@@ -836,7 +859,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>21702</v>
       </c>
       <c r="B61">
@@ -844,7 +867,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>21732</v>
       </c>
       <c r="B62">
@@ -852,7 +875,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>21763</v>
       </c>
       <c r="B63">
@@ -860,7 +883,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>21794</v>
       </c>
       <c r="B64">
@@ -868,7 +891,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>21824</v>
       </c>
       <c r="B65">
@@ -876,7 +899,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>21855</v>
       </c>
       <c r="B66">
@@ -884,7 +907,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>21885</v>
       </c>
       <c r="B67">
@@ -892,7 +915,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>21916</v>
       </c>
       <c r="B68">
@@ -900,7 +923,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>21947</v>
       </c>
       <c r="B69">
@@ -908,7 +931,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>21976</v>
       </c>
       <c r="B70">
@@ -916,7 +939,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>22007</v>
       </c>
       <c r="B71">
@@ -924,7 +947,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>22037</v>
       </c>
       <c r="B72">
@@ -932,7 +955,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>22068</v>
       </c>
       <c r="B73">
@@ -940,7 +963,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>22098</v>
       </c>
       <c r="B74">
@@ -948,7 +971,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>22129</v>
       </c>
       <c r="B75">
@@ -956,7 +979,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>22160</v>
       </c>
       <c r="B76">
@@ -964,7 +987,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>22190</v>
       </c>
       <c r="B77">
@@ -972,7 +995,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>22221</v>
       </c>
       <c r="B78">
@@ -980,7 +1003,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>22251</v>
       </c>
       <c r="B79">
@@ -988,7 +1011,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>22282</v>
       </c>
       <c r="B80">
@@ -996,7 +1019,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>22313</v>
       </c>
       <c r="B81">
@@ -1004,7 +1027,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>22341</v>
       </c>
       <c r="B82">
@@ -1012,7 +1035,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>22372</v>
       </c>
       <c r="B83">
@@ -1020,7 +1043,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>22402</v>
       </c>
       <c r="B84">
@@ -1028,7 +1051,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>22433</v>
       </c>
       <c r="B85">
@@ -1036,7 +1059,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>22463</v>
       </c>
       <c r="B86">
@@ -1044,7 +1067,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>22494</v>
       </c>
       <c r="B87">
@@ -1052,7 +1075,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>22525</v>
       </c>
       <c r="B88">
@@ -1060,7 +1083,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>22555</v>
       </c>
       <c r="B89">
@@ -1068,7 +1091,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>22586</v>
       </c>
       <c r="B90">
@@ -1076,7 +1099,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>22616</v>
       </c>
       <c r="B91">
@@ -1084,7 +1107,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>22647</v>
       </c>
       <c r="B92">
@@ -1092,7 +1115,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>22678</v>
       </c>
       <c r="B93">
@@ -1100,7 +1123,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>22706</v>
       </c>
       <c r="B94">
@@ -1108,7 +1131,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>22737</v>
       </c>
       <c r="B95">
@@ -1116,7 +1139,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>22767</v>
       </c>
       <c r="B96">
@@ -1124,7 +1147,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>22798</v>
       </c>
       <c r="B97">
@@ -1132,7 +1155,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>22828</v>
       </c>
       <c r="B98">
@@ -1140,7 +1163,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>22859</v>
       </c>
       <c r="B99">
@@ -1148,7 +1171,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>22890</v>
       </c>
       <c r="B100">
@@ -1156,7 +1179,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>22920</v>
       </c>
       <c r="B101">
@@ -1164,7 +1187,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>22951</v>
       </c>
       <c r="B102">
@@ -1172,7 +1195,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>22981</v>
       </c>
       <c r="B103">
@@ -1180,7 +1203,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>23012</v>
       </c>
       <c r="B104">
@@ -1188,7 +1211,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>23043</v>
       </c>
       <c r="B105">
@@ -1196,7 +1219,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>23071</v>
       </c>
       <c r="B106">
@@ -1204,7 +1227,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>23102</v>
       </c>
       <c r="B107">
@@ -1212,7 +1235,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>23132</v>
       </c>
       <c r="B108">
@@ -1220,7 +1243,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>23163</v>
       </c>
       <c r="B109">
@@ -1228,7 +1251,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>23193</v>
       </c>
       <c r="B110">
@@ -1236,7 +1259,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>23224</v>
       </c>
       <c r="B111">
@@ -1244,7 +1267,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>23255</v>
       </c>
       <c r="B112">
@@ -1252,7 +1275,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="2">
         <v>23285</v>
       </c>
       <c r="B113">
@@ -1260,7 +1283,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>23316</v>
       </c>
       <c r="B114">
@@ -1268,7 +1291,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="2">
         <v>23346</v>
       </c>
       <c r="B115">
@@ -1276,7 +1299,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>23377</v>
       </c>
       <c r="B116">
@@ -1284,7 +1307,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="2">
         <v>23408</v>
       </c>
       <c r="B117">
@@ -1292,7 +1315,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>23437</v>
       </c>
       <c r="B118">
@@ -1300,7 +1323,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="2">
         <v>23468</v>
       </c>
       <c r="B119">
@@ -1308,7 +1331,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>23498</v>
       </c>
       <c r="B120">
@@ -1316,7 +1339,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="2">
         <v>23529</v>
       </c>
       <c r="B121">
@@ -1324,7 +1347,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>23559</v>
       </c>
       <c r="B122">
@@ -1332,7 +1355,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="2">
         <v>23590</v>
       </c>
       <c r="B123">
@@ -1340,7 +1363,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>23621</v>
       </c>
       <c r="B124">
@@ -1348,7 +1371,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="2">
         <v>23651</v>
       </c>
       <c r="B125">
@@ -1356,7 +1379,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>23682</v>
       </c>
       <c r="B126">
@@ -1364,7 +1387,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="2">
         <v>23712</v>
       </c>
       <c r="B127">
@@ -1372,7 +1395,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="2">
         <v>23743</v>
       </c>
       <c r="B128">
@@ -1380,7 +1403,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="2">
         <v>23774</v>
       </c>
       <c r="B129">
@@ -1388,7 +1411,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>23802</v>
       </c>
       <c r="B130">
@@ -1396,7 +1419,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="2">
         <v>23833</v>
       </c>
       <c r="B131">
@@ -1404,7 +1427,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="2">
         <v>23863</v>
       </c>
       <c r="B132">
@@ -1412,7 +1435,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="2">
         <v>23894</v>
       </c>
       <c r="B133">
@@ -1420,7 +1443,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="2">
         <v>23924</v>
       </c>
       <c r="B134">
@@ -1428,7 +1451,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="2">
         <v>23955</v>
       </c>
       <c r="B135">
@@ -1436,7 +1459,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="2">
         <v>23986</v>
       </c>
       <c r="B136">
@@ -1444,7 +1467,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="2">
         <v>24016</v>
       </c>
       <c r="B137">
@@ -1452,7 +1475,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="2">
         <v>24047</v>
       </c>
       <c r="B138">
@@ -1460,7 +1483,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="2">
         <v>24077</v>
       </c>
       <c r="B139">
@@ -1468,7 +1491,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="2">
         <v>24108</v>
       </c>
       <c r="B140">
@@ -1476,7 +1499,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="2">
         <v>24139</v>
       </c>
       <c r="B141">
@@ -1484,7 +1507,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="2">
         <v>24167</v>
       </c>
       <c r="B142">
@@ -1492,7 +1515,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="2">
         <v>24198</v>
       </c>
       <c r="B143">
@@ -1500,7 +1523,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="2">
         <v>24228</v>
       </c>
       <c r="B144">
@@ -1508,7 +1531,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="2">
         <v>24259</v>
       </c>
       <c r="B145">
@@ -1516,7 +1539,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="2">
         <v>24289</v>
       </c>
       <c r="B146">
@@ -1524,7 +1547,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="2">
         <v>24320</v>
       </c>
       <c r="B147">
@@ -1532,7 +1555,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="2">
         <v>24351</v>
       </c>
       <c r="B148">
@@ -1540,7 +1563,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="2">
         <v>24381</v>
       </c>
       <c r="B149">
@@ -1548,7 +1571,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="2">
         <v>24412</v>
       </c>
       <c r="B150">
@@ -1556,7 +1579,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="2">
         <v>24442</v>
       </c>
       <c r="B151">
@@ -1564,7 +1587,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="2">
         <v>24473</v>
       </c>
       <c r="B152">
@@ -1572,7 +1595,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="2">
         <v>24504</v>
       </c>
       <c r="B153">
@@ -1580,7 +1603,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="2">
         <v>24532</v>
       </c>
       <c r="B154">
@@ -1588,7 +1611,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="2">
         <v>24563</v>
       </c>
       <c r="B155">
@@ -1596,7 +1619,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="2">
         <v>24593</v>
       </c>
       <c r="B156">
@@ -1604,7 +1627,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>24624</v>
       </c>
       <c r="B157">
@@ -1612,7 +1635,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="2">
         <v>24654</v>
       </c>
       <c r="B158">
@@ -1620,7 +1643,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="2">
         <v>24685</v>
       </c>
       <c r="B159">
@@ -1628,7 +1651,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="2">
         <v>24716</v>
       </c>
       <c r="B160">
@@ -1636,7 +1659,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="2">
         <v>24746</v>
       </c>
       <c r="B161">
@@ -1644,7 +1667,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="2">
         <v>24777</v>
       </c>
       <c r="B162">
@@ -1652,7 +1675,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="2">
         <v>24807</v>
       </c>
       <c r="B163">
@@ -1660,7 +1683,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="2">
         <v>24838</v>
       </c>
       <c r="B164">
@@ -1668,7 +1691,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="2">
         <v>24869</v>
       </c>
       <c r="B165">
@@ -1676,7 +1699,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="2">
         <v>24898</v>
       </c>
       <c r="B166">
@@ -1684,7 +1707,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="2">
         <v>24929</v>
       </c>
       <c r="B167">
@@ -1692,7 +1715,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="2">
         <v>24959</v>
       </c>
       <c r="B168">
@@ -1700,7 +1723,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="2">
         <v>24990</v>
       </c>
       <c r="B169">
@@ -1708,7 +1731,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="2">
         <v>25020</v>
       </c>
       <c r="B170">
@@ -1716,7 +1739,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="2">
         <v>25051</v>
       </c>
       <c r="B171">
@@ -1724,7 +1747,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="2">
         <v>25082</v>
       </c>
       <c r="B172">
@@ -1732,7 +1755,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="2">
         <v>25112</v>
       </c>
       <c r="B173">
@@ -1740,7 +1763,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="2">
         <v>25143</v>
       </c>
       <c r="B174">
@@ -1748,7 +1771,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="2">
         <v>25173</v>
       </c>
       <c r="B175">
@@ -1756,7 +1779,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="2">
         <v>25204</v>
       </c>
       <c r="B176">
@@ -1764,7 +1787,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="2">
         <v>25235</v>
       </c>
       <c r="B177">
@@ -1772,7 +1795,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="2">
         <v>25263</v>
       </c>
       <c r="B178">
@@ -1780,7 +1803,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="2">
         <v>25294</v>
       </c>
       <c r="B179">
@@ -1788,7 +1811,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="2">
         <v>25324</v>
       </c>
       <c r="B180">
@@ -1796,7 +1819,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="2">
         <v>25355</v>
       </c>
       <c r="B181">
@@ -1804,7 +1827,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="2">
         <v>25385</v>
       </c>
       <c r="B182">
@@ -1812,7 +1835,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="2">
         <v>25416</v>
       </c>
       <c r="B183">
@@ -1820,7 +1843,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="2">
         <v>25447</v>
       </c>
       <c r="B184">
@@ -1828,7 +1851,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="2">
         <v>25477</v>
       </c>
       <c r="B185">
@@ -1836,7 +1859,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="2">
         <v>25508</v>
       </c>
       <c r="B186">
@@ -1844,7 +1867,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="2">
         <v>25538</v>
       </c>
       <c r="B187">
@@ -1852,7 +1875,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="2">
         <v>25569</v>
       </c>
       <c r="B188">
@@ -1860,7 +1883,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="2">
         <v>25600</v>
       </c>
       <c r="B189">
@@ -1868,7 +1891,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="2">
         <v>25628</v>
       </c>
       <c r="B190">
@@ -1876,7 +1899,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="2">
         <v>25659</v>
       </c>
       <c r="B191">
@@ -1884,7 +1907,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="2">
         <v>25689</v>
       </c>
       <c r="B192">
@@ -1892,7 +1915,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="2">
         <v>25720</v>
       </c>
       <c r="B193">
@@ -1900,7 +1923,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="2">
         <v>25750</v>
       </c>
       <c r="B194">
@@ -1908,7 +1931,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="2">
         <v>25781</v>
       </c>
       <c r="B195">
@@ -1916,7 +1939,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="2">
         <v>25812</v>
       </c>
       <c r="B196">
@@ -1924,7 +1947,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="2">
         <v>25842</v>
       </c>
       <c r="B197">
@@ -1932,7 +1955,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="2">
         <v>25873</v>
       </c>
       <c r="B198">
@@ -1940,7 +1963,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="2">
         <v>25903</v>
       </c>
       <c r="B199">
@@ -1948,7 +1971,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="2">
         <v>25934</v>
       </c>
       <c r="B200">
@@ -1956,7 +1979,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="2">
         <v>25965</v>
       </c>
       <c r="B201">
@@ -1964,7 +1987,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="2">
         <v>25993</v>
       </c>
       <c r="B202">
@@ -1972,7 +1995,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="2">
         <v>26024</v>
       </c>
       <c r="B203">
@@ -1980,7 +2003,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="2">
         <v>26054</v>
       </c>
       <c r="B204">
@@ -1988,7 +2011,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="2">
         <v>26085</v>
       </c>
       <c r="B205">
@@ -1996,7 +2019,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="2">
         <v>26115</v>
       </c>
       <c r="B206">
@@ -2004,7 +2027,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="2">
         <v>26146</v>
       </c>
       <c r="B207">
@@ -2012,7 +2035,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="2">
         <v>26177</v>
       </c>
       <c r="B208">
@@ -2020,7 +2043,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="2">
         <v>26207</v>
       </c>
       <c r="B209">
@@ -2028,7 +2051,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="2">
         <v>26238</v>
       </c>
       <c r="B210">
@@ -2036,7 +2059,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="2">
         <v>26268</v>
       </c>
       <c r="B211">
@@ -2044,7 +2067,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="2">
         <v>26299</v>
       </c>
       <c r="B212">
@@ -2052,7 +2075,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="2">
         <v>26330</v>
       </c>
       <c r="B213">
@@ -2060,7 +2083,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="2">
         <v>26359</v>
       </c>
       <c r="B214">
@@ -2068,7 +2091,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="2">
         <v>26390</v>
       </c>
       <c r="B215">
@@ -2076,7 +2099,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="2">
         <v>26420</v>
       </c>
       <c r="B216">
@@ -2084,7 +2107,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="2">
         <v>26451</v>
       </c>
       <c r="B217">
@@ -2092,7 +2115,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="2">
         <v>26481</v>
       </c>
       <c r="B218">
@@ -2100,7 +2123,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="2">
         <v>26512</v>
       </c>
       <c r="B219">
@@ -2108,7 +2131,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="2">
         <v>26543</v>
       </c>
       <c r="B220">
@@ -2116,7 +2139,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="2">
         <v>26573</v>
       </c>
       <c r="B221">
@@ -2124,7 +2147,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="2">
         <v>26604</v>
       </c>
       <c r="B222">
@@ -2132,7 +2155,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="2">
         <v>26634</v>
       </c>
       <c r="B223">
@@ -2140,7 +2163,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="2">
         <v>26665</v>
       </c>
       <c r="B224">
@@ -2148,7 +2171,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="2">
         <v>26696</v>
       </c>
       <c r="B225">
@@ -2156,7 +2179,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="2">
         <v>26724</v>
       </c>
       <c r="B226">
@@ -2164,7 +2187,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="2">
         <v>26755</v>
       </c>
       <c r="B227">
@@ -2172,7 +2195,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="2">
         <v>26785</v>
       </c>
       <c r="B228">
@@ -2180,7 +2203,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="2">
         <v>26816</v>
       </c>
       <c r="B229">
@@ -2188,7 +2211,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="2">
         <v>26846</v>
       </c>
       <c r="B230">
@@ -2196,7 +2219,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="2">
         <v>26877</v>
       </c>
       <c r="B231">
@@ -2204,7 +2227,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="2">
         <v>26908</v>
       </c>
       <c r="B232">
@@ -2212,7 +2235,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="2">
         <v>26938</v>
       </c>
       <c r="B233">
@@ -2220,7 +2243,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="2">
         <v>26969</v>
       </c>
       <c r="B234">
@@ -2228,7 +2251,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="2">
         <v>26999</v>
       </c>
       <c r="B235">
@@ -2236,7 +2259,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="2">
         <v>27030</v>
       </c>
       <c r="B236">
@@ -2244,7 +2267,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="2">
         <v>27061</v>
       </c>
       <c r="B237">
@@ -2252,7 +2275,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="2">
         <v>27089</v>
       </c>
       <c r="B238">
@@ -2260,7 +2283,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="2">
         <v>27120</v>
       </c>
       <c r="B239">
@@ -2268,7 +2291,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="2">
         <v>27150</v>
       </c>
       <c r="B240">
@@ -2276,7 +2299,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="2">
         <v>27181</v>
       </c>
       <c r="B241">
@@ -2284,7 +2307,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="2">
         <v>27211</v>
       </c>
       <c r="B242">
@@ -2292,7 +2315,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="2">
         <v>27242</v>
       </c>
       <c r="B243">
@@ -2300,7 +2323,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="2">
         <v>27273</v>
       </c>
       <c r="B244">
@@ -2308,7 +2331,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="2">
         <v>27303</v>
       </c>
       <c r="B245">
@@ -2316,7 +2339,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="2">
         <v>27334</v>
       </c>
       <c r="B246">
@@ -2324,7 +2347,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="2">
         <v>27364</v>
       </c>
       <c r="B247">
@@ -2332,7 +2355,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="2">
         <v>27395</v>
       </c>
       <c r="B248">
@@ -2340,7 +2363,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="2">
         <v>27426</v>
       </c>
       <c r="B249">
@@ -2348,7 +2371,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="2">
         <v>27454</v>
       </c>
       <c r="B250">
@@ -2356,7 +2379,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="2">
         <v>27485</v>
       </c>
       <c r="B251">
@@ -2364,7 +2387,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="2">
         <v>27515</v>
       </c>
       <c r="B252">
@@ -2372,7 +2395,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="2">
         <v>27546</v>
       </c>
       <c r="B253">
@@ -2380,7 +2403,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="2">
         <v>27576</v>
       </c>
       <c r="B254">
@@ -2388,7 +2411,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="2">
         <v>27607</v>
       </c>
       <c r="B255">
@@ -2396,7 +2419,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="2">
         <v>27638</v>
       </c>
       <c r="B256">
@@ -2404,7 +2427,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="2">
         <v>27668</v>
       </c>
       <c r="B257">
@@ -2412,7 +2435,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="2">
         <v>27699</v>
       </c>
       <c r="B258">
@@ -2420,7 +2443,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="2">
         <v>27729</v>
       </c>
       <c r="B259">
@@ -2428,7 +2451,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="2">
         <v>27760</v>
       </c>
       <c r="B260">
@@ -2436,7 +2459,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="2">
         <v>27791</v>
       </c>
       <c r="B261">
@@ -2444,7 +2467,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="2">
         <v>27820</v>
       </c>
       <c r="B262">
@@ -2452,7 +2475,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="2">
         <v>27851</v>
       </c>
       <c r="B263">
@@ -2460,7 +2483,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="2">
         <v>27881</v>
       </c>
       <c r="B264">
@@ -2468,7 +2491,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="2">
         <v>27912</v>
       </c>
       <c r="B265">
@@ -2476,7 +2499,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="2">
         <v>27942</v>
       </c>
       <c r="B266">
@@ -2484,7 +2507,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="2">
         <v>27973</v>
       </c>
       <c r="B267">
@@ -2492,7 +2515,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="2">
         <v>28004</v>
       </c>
       <c r="B268">
@@ -2500,7 +2523,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="2">
         <v>28034</v>
       </c>
       <c r="B269">
@@ -2508,7 +2531,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="2">
         <v>28065</v>
       </c>
       <c r="B270">
@@ -2516,7 +2539,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="2">
         <v>28095</v>
       </c>
       <c r="B271">
@@ -2524,7 +2547,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="2">
         <v>28126</v>
       </c>
       <c r="B272">
@@ -2532,7 +2555,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="2">
         <v>28157</v>
       </c>
       <c r="B273">
@@ -2540,7 +2563,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="2">
         <v>28185</v>
       </c>
       <c r="B274">
@@ -2548,7 +2571,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="2">
         <v>28216</v>
       </c>
       <c r="B275">
@@ -2556,7 +2579,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="2">
         <v>28246</v>
       </c>
       <c r="B276">
@@ -2564,7 +2587,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="2">
         <v>28277</v>
       </c>
       <c r="B277">
@@ -2572,7 +2595,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="2">
         <v>28307</v>
       </c>
       <c r="B278">
@@ -2580,7 +2603,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="2">
         <v>28338</v>
       </c>
       <c r="B279">
@@ -2588,7 +2611,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="2">
         <v>28369</v>
       </c>
       <c r="B280">
@@ -2596,7 +2619,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="2">
         <v>28399</v>
       </c>
       <c r="B281">
@@ -2604,7 +2627,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="2">
         <v>28430</v>
       </c>
       <c r="B282">
@@ -2612,7 +2635,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="2">
         <v>28460</v>
       </c>
       <c r="B283">
@@ -2620,7 +2643,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="2">
         <v>28491</v>
       </c>
       <c r="B284">
@@ -2628,7 +2651,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="2">
         <v>28522</v>
       </c>
       <c r="B285">
@@ -2636,7 +2659,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="2">
         <v>28550</v>
       </c>
       <c r="B286">
@@ -2644,7 +2667,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="2">
         <v>28581</v>
       </c>
       <c r="B287">
@@ -2652,7 +2675,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="2">
         <v>28611</v>
       </c>
       <c r="B288">
@@ -2660,7 +2683,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="2">
         <v>28642</v>
       </c>
       <c r="B289">
@@ -2668,7 +2691,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="2">
         <v>28672</v>
       </c>
       <c r="B290">
@@ -2676,7 +2699,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="2">
         <v>28703</v>
       </c>
       <c r="B291">
@@ -2684,7 +2707,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="2">
         <v>28734</v>
       </c>
       <c r="B292">
@@ -2692,7 +2715,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="2">
         <v>28764</v>
       </c>
       <c r="B293">
@@ -2700,7 +2723,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="2">
         <v>28795</v>
       </c>
       <c r="B294">
@@ -2708,7 +2731,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="2">
         <v>28825</v>
       </c>
       <c r="B295">
@@ -2716,7 +2739,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="2">
         <v>28856</v>
       </c>
       <c r="B296">
@@ -2724,7 +2747,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="2">
         <v>28887</v>
       </c>
       <c r="B297">
@@ -2732,7 +2755,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="2">
         <v>28915</v>
       </c>
       <c r="B298">
@@ -2740,7 +2763,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="2">
         <v>28946</v>
       </c>
       <c r="B299">
@@ -2748,7 +2771,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="2">
         <v>28976</v>
       </c>
       <c r="B300">
@@ -2756,7 +2779,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="2">
         <v>29007</v>
       </c>
       <c r="B301">
@@ -2764,7 +2787,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="2">
         <v>29037</v>
       </c>
       <c r="B302">
@@ -2772,7 +2795,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="2">
         <v>29068</v>
       </c>
       <c r="B303">
@@ -2780,7 +2803,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="2">
         <v>29099</v>
       </c>
       <c r="B304">
@@ -2788,7 +2811,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="2">
         <v>29129</v>
       </c>
       <c r="B305">
@@ -2796,7 +2819,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="2">
         <v>29160</v>
       </c>
       <c r="B306">
@@ -2804,7 +2827,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="2">
         <v>29190</v>
       </c>
       <c r="B307">
@@ -2812,7 +2835,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="2">
         <v>29221</v>
       </c>
       <c r="B308">
@@ -2820,7 +2843,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="2">
         <v>29252</v>
       </c>
       <c r="B309">
@@ -2828,7 +2851,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="2">
         <v>29281</v>
       </c>
       <c r="B310">
@@ -2836,7 +2859,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="2">
         <v>29312</v>
       </c>
       <c r="B311">
@@ -2844,7 +2867,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="2">
         <v>29342</v>
       </c>
       <c r="B312">
@@ -2852,7 +2875,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="2">
         <v>29373</v>
       </c>
       <c r="B313">
@@ -2860,7 +2883,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="2">
         <v>29403</v>
       </c>
       <c r="B314">
@@ -2868,7 +2891,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="2">
         <v>29434</v>
       </c>
       <c r="B315">
@@ -2876,7 +2899,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="2">
         <v>29465</v>
       </c>
       <c r="B316">
@@ -2884,7 +2907,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="2">
         <v>29495</v>
       </c>
       <c r="B317">
@@ -2892,7 +2915,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="2">
         <v>29526</v>
       </c>
       <c r="B318">
@@ -2900,7 +2923,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="2">
         <v>29556</v>
       </c>
       <c r="B319">
@@ -2908,7 +2931,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="2">
         <v>29587</v>
       </c>
       <c r="B320">
@@ -2916,7 +2939,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="2">
         <v>29618</v>
       </c>
       <c r="B321">
@@ -2924,7 +2947,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="2">
         <v>29646</v>
       </c>
       <c r="B322">
@@ -2932,7 +2955,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="2">
         <v>29677</v>
       </c>
       <c r="B323">
@@ -2940,7 +2963,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="2">
         <v>29707</v>
       </c>
       <c r="B324">
@@ -2948,7 +2971,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="2">
         <v>29738</v>
       </c>
       <c r="B325">
@@ -2956,7 +2979,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="2">
         <v>29768</v>
       </c>
       <c r="B326">
@@ -2964,7 +2987,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="2">
         <v>29799</v>
       </c>
       <c r="B327">
@@ -2972,7 +2995,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="2">
         <v>29830</v>
       </c>
       <c r="B328">
@@ -2980,7 +3003,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="2">
         <v>29860</v>
       </c>
       <c r="B329">
@@ -2988,7 +3011,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="2">
         <v>29891</v>
       </c>
       <c r="B330">
@@ -2996,7 +3019,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="2">
         <v>29921</v>
       </c>
       <c r="B331">
@@ -3004,7 +3027,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="2">
         <v>29952</v>
       </c>
       <c r="B332">
@@ -3012,7 +3035,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="2">
         <v>29983</v>
       </c>
       <c r="B333">
@@ -3020,7 +3043,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="2">
         <v>30011</v>
       </c>
       <c r="B334">
@@ -3028,7 +3051,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="2">
         <v>30042</v>
       </c>
       <c r="B335">
@@ -3036,7 +3059,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="2">
         <v>30072</v>
       </c>
       <c r="B336">
@@ -3044,7 +3067,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="2">
         <v>30103</v>
       </c>
       <c r="B337">
@@ -3052,7 +3075,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="2">
         <v>30133</v>
       </c>
       <c r="B338">
@@ -3060,7 +3083,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="2">
         <v>30164</v>
       </c>
       <c r="B339">
@@ -3068,7 +3091,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="2">
         <v>30195</v>
       </c>
       <c r="B340">
@@ -3076,7 +3099,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="2">
         <v>30225</v>
       </c>
       <c r="B341">
@@ -3084,7 +3107,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="2">
         <v>30256</v>
       </c>
       <c r="B342">
@@ -3092,7 +3115,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="2">
         <v>30286</v>
       </c>
       <c r="B343">
@@ -3100,7 +3123,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="2">
         <v>30317</v>
       </c>
       <c r="B344">
@@ -3108,7 +3131,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="2">
         <v>30348</v>
       </c>
       <c r="B345">
@@ -3116,7 +3139,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="2">
         <v>30376</v>
       </c>
       <c r="B346">
@@ -3124,7 +3147,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="2">
         <v>30407</v>
       </c>
       <c r="B347">
@@ -3132,7 +3155,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="2">
         <v>30437</v>
       </c>
       <c r="B348">
@@ -3140,7 +3163,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="2">
         <v>30468</v>
       </c>
       <c r="B349">
@@ -3148,7 +3171,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="2">
         <v>30498</v>
       </c>
       <c r="B350">
@@ -3156,7 +3179,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="2">
         <v>30529</v>
       </c>
       <c r="B351">
@@ -3164,7 +3187,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="2">
         <v>30560</v>
       </c>
       <c r="B352">
@@ -3172,7 +3195,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="2">
         <v>30590</v>
       </c>
       <c r="B353">
@@ -3180,7 +3203,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="2">
         <v>30621</v>
       </c>
       <c r="B354">
@@ -3188,7 +3211,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="2">
         <v>30651</v>
       </c>
       <c r="B355">
@@ -3196,7 +3219,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="2">
         <v>30682</v>
       </c>
       <c r="B356">
@@ -3204,7 +3227,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="2">
         <v>30713</v>
       </c>
       <c r="B357">
@@ -3212,7 +3235,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="2">
         <v>30742</v>
       </c>
       <c r="B358">
@@ -3220,7 +3243,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="2">
         <v>30773</v>
       </c>
       <c r="B359">
@@ -3228,7 +3251,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="2">
         <v>30803</v>
       </c>
       <c r="B360">
@@ -3236,7 +3259,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="2">
         <v>30834</v>
       </c>
       <c r="B361">
@@ -3244,7 +3267,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="2">
         <v>30864</v>
       </c>
       <c r="B362">
@@ -3252,7 +3275,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="2">
         <v>30895</v>
       </c>
       <c r="B363">
@@ -3260,7 +3283,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="2">
         <v>30926</v>
       </c>
       <c r="B364">
@@ -3268,7 +3291,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="2">
         <v>30956</v>
       </c>
       <c r="B365">
@@ -3276,7 +3299,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="2">
         <v>30987</v>
       </c>
       <c r="B366">
@@ -3284,7 +3307,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="2">
         <v>31017</v>
       </c>
       <c r="B367">
@@ -3292,7 +3315,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="2">
         <v>31048</v>
       </c>
       <c r="B368">
@@ -3300,7 +3323,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="2">
         <v>31079</v>
       </c>
       <c r="B369">
@@ -3308,7 +3331,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="2">
         <v>31107</v>
       </c>
       <c r="B370">
@@ -3316,7 +3339,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="2">
         <v>31138</v>
       </c>
       <c r="B371">
@@ -3324,7 +3347,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="2">
         <v>31168</v>
       </c>
       <c r="B372">
@@ -3332,7 +3355,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="2">
         <v>31199</v>
       </c>
       <c r="B373">
@@ -3340,7 +3363,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="2">
         <v>31229</v>
       </c>
       <c r="B374">
@@ -3348,7 +3371,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="2">
         <v>31260</v>
       </c>
       <c r="B375">
@@ -3356,7 +3379,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="2">
         <v>31291</v>
       </c>
       <c r="B376">
@@ -3364,7 +3387,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="2">
         <v>31321</v>
       </c>
       <c r="B377">
@@ -3372,7 +3395,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="2">
         <v>31352</v>
       </c>
       <c r="B378">
@@ -3380,7 +3403,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="2">
         <v>31382</v>
       </c>
       <c r="B379">
@@ -3388,7 +3411,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="2">
         <v>31413</v>
       </c>
       <c r="B380">
@@ -3396,7 +3419,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="2">
         <v>31444</v>
       </c>
       <c r="B381">
@@ -3404,7 +3427,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="2">
         <v>31472</v>
       </c>
       <c r="B382">
@@ -3412,7 +3435,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="2">
         <v>31503</v>
       </c>
       <c r="B383">
@@ -3420,7 +3443,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="2">
         <v>31533</v>
       </c>
       <c r="B384">
@@ -3428,7 +3451,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="2">
         <v>31564</v>
       </c>
       <c r="B385">
@@ -3436,7 +3459,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="2">
         <v>31594</v>
       </c>
       <c r="B386">
@@ -3444,7 +3467,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="2">
         <v>31625</v>
       </c>
       <c r="B387">
@@ -3452,7 +3475,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="2">
         <v>31656</v>
       </c>
       <c r="B388">
@@ -3460,7 +3483,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="2">
         <v>31686</v>
       </c>
       <c r="B389">
@@ -3468,7 +3491,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="2">
         <v>31717</v>
       </c>
       <c r="B390">
@@ -3476,7 +3499,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="2">
         <v>31747</v>
       </c>
       <c r="B391">
@@ -3484,7 +3507,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="2">
         <v>31778</v>
       </c>
       <c r="B392">
@@ -3492,7 +3515,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="2">
         <v>31809</v>
       </c>
       <c r="B393">
@@ -3500,7 +3523,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="2">
         <v>31837</v>
       </c>
       <c r="B394">
@@ -3508,7 +3531,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="2">
         <v>31868</v>
       </c>
       <c r="B395">
@@ -3516,7 +3539,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="2">
         <v>31898</v>
       </c>
       <c r="B396">
@@ -3524,7 +3547,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="2">
         <v>31929</v>
       </c>
       <c r="B397">
@@ -3532,7 +3555,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="2">
         <v>31959</v>
       </c>
       <c r="B398">
@@ -3540,7 +3563,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="2">
         <v>31990</v>
       </c>
       <c r="B399">
@@ -3548,7 +3571,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="2">
         <v>32021</v>
       </c>
       <c r="B400">
@@ -3556,7 +3579,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="2">
         <v>32051</v>
       </c>
       <c r="B401">
@@ -3564,7 +3587,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="2">
         <v>32082</v>
       </c>
       <c r="B402">
@@ -3572,7 +3595,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="2">
         <v>32112</v>
       </c>
       <c r="B403">
@@ -3580,7 +3603,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="2">
         <v>32143</v>
       </c>
       <c r="B404">
@@ -3588,7 +3611,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="2">
         <v>32174</v>
       </c>
       <c r="B405">
@@ -3596,7 +3619,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="2">
         <v>32203</v>
       </c>
       <c r="B406">
@@ -3604,7 +3627,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="2">
         <v>32234</v>
       </c>
       <c r="B407">
@@ -3612,7 +3635,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="2">
         <v>32264</v>
       </c>
       <c r="B408">
@@ -3620,7 +3643,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="2">
         <v>32295</v>
       </c>
       <c r="B409">
@@ -3628,7 +3651,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="2">
         <v>32325</v>
       </c>
       <c r="B410">
@@ -3636,7 +3659,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="2">
         <v>32356</v>
       </c>
       <c r="B411">
@@ -3644,7 +3667,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="2">
         <v>32387</v>
       </c>
       <c r="B412">
@@ -3652,7 +3675,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="2">
         <v>32417</v>
       </c>
       <c r="B413">
@@ -3660,7 +3683,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="2">
         <v>32448</v>
       </c>
       <c r="B414">
@@ -3668,7 +3691,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="2">
         <v>32478</v>
       </c>
       <c r="B415">
@@ -3676,7 +3699,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="2">
         <v>32509</v>
       </c>
       <c r="B416">
@@ -3684,7 +3707,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="2">
         <v>32540</v>
       </c>
       <c r="B417">
@@ -3692,7 +3715,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="2">
         <v>32568</v>
       </c>
       <c r="B418">
@@ -3700,7 +3723,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="2">
         <v>32599</v>
       </c>
       <c r="B419">
@@ -3708,7 +3731,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="2">
         <v>32629</v>
       </c>
       <c r="B420">
@@ -3716,7 +3739,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="2">
         <v>32660</v>
       </c>
       <c r="B421">
@@ -3724,7 +3747,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="2">
         <v>32690</v>
       </c>
       <c r="B422">
@@ -3732,7 +3755,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="2">
         <v>32721</v>
       </c>
       <c r="B423">
@@ -3740,7 +3763,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="2">
         <v>32752</v>
       </c>
       <c r="B424">
@@ -3748,7 +3771,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="2">
         <v>32782</v>
       </c>
       <c r="B425">
@@ -3756,7 +3779,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="2">
         <v>32813</v>
       </c>
       <c r="B426">
@@ -3764,7 +3787,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="2">
         <v>32843</v>
       </c>
       <c r="B427">
@@ -3772,7 +3795,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="2">
         <v>32874</v>
       </c>
       <c r="B428">
@@ -3780,7 +3803,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="2">
         <v>32905</v>
       </c>
       <c r="B429">
@@ -3788,7 +3811,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="2">
         <v>32933</v>
       </c>
       <c r="B430">
@@ -3796,7 +3819,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="2">
         <v>32964</v>
       </c>
       <c r="B431">
@@ -3804,7 +3827,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="2">
         <v>32994</v>
       </c>
       <c r="B432">
@@ -3812,7 +3835,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="2">
         <v>33025</v>
       </c>
       <c r="B433">
@@ -3820,7 +3843,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="2">
         <v>33055</v>
       </c>
       <c r="B434">
@@ -3828,7 +3851,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="2">
         <v>33086</v>
       </c>
       <c r="B435">
@@ -3836,7 +3859,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="2">
         <v>33117</v>
       </c>
       <c r="B436">
@@ -3844,7 +3867,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="2">
         <v>33147</v>
       </c>
       <c r="B437">
@@ -3852,7 +3875,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="2">
         <v>33178</v>
       </c>
       <c r="B438">
@@ -3860,7 +3883,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="2">
         <v>33208</v>
       </c>
       <c r="B439">
@@ -3868,7 +3891,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="2">
         <v>33239</v>
       </c>
       <c r="B440">
@@ -3876,7 +3899,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="2">
         <v>33270</v>
       </c>
       <c r="B441">
@@ -3884,7 +3907,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="2">
         <v>33298</v>
       </c>
       <c r="B442">
@@ -3892,7 +3915,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="2">
         <v>33329</v>
       </c>
       <c r="B443">
@@ -3900,7 +3923,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="2">
         <v>33359</v>
       </c>
       <c r="B444">
@@ -3908,7 +3931,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="2">
         <v>33390</v>
       </c>
       <c r="B445">
@@ -3916,7 +3939,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="2">
         <v>33420</v>
       </c>
       <c r="B446">
@@ -3924,7 +3947,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="2">
         <v>33451</v>
       </c>
       <c r="B447">
@@ -3932,7 +3955,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="2">
         <v>33482</v>
       </c>
       <c r="B448">
@@ -3940,7 +3963,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="2">
         <v>33512</v>
       </c>
       <c r="B449">
@@ -3948,7 +3971,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="2">
         <v>33543</v>
       </c>
       <c r="B450">
@@ -3956,7 +3979,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="2">
         <v>33573</v>
       </c>
       <c r="B451">
@@ -3964,7 +3987,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="2">
         <v>33604</v>
       </c>
       <c r="B452">
@@ -3972,7 +3995,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="2">
         <v>33635</v>
       </c>
       <c r="B453">
@@ -3980,7 +4003,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="2">
         <v>33664</v>
       </c>
       <c r="B454">
@@ -3988,7 +4011,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="2">
         <v>33695</v>
       </c>
       <c r="B455">
@@ -3996,7 +4019,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="2">
         <v>33725</v>
       </c>
       <c r="B456">
@@ -4004,7 +4027,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="2">
         <v>33756</v>
       </c>
       <c r="B457">
@@ -4012,7 +4035,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="2">
         <v>33786</v>
       </c>
       <c r="B458">
@@ -4020,7 +4043,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="2">
         <v>33817</v>
       </c>
       <c r="B459">
@@ -4028,7 +4051,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="2">
         <v>33848</v>
       </c>
       <c r="B460">
@@ -4036,7 +4059,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="2">
         <v>33878</v>
       </c>
       <c r="B461">
@@ -4044,7 +4067,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="2">
         <v>33909</v>
       </c>
       <c r="B462">
@@ -4052,7 +4075,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="2">
         <v>33939</v>
       </c>
       <c r="B463">
@@ -4060,7 +4083,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="2">
         <v>33970</v>
       </c>
       <c r="B464">
@@ -4068,7 +4091,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="2">
         <v>34001</v>
       </c>
       <c r="B465">
@@ -4076,7 +4099,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="2">
         <v>34029</v>
       </c>
       <c r="B466">
@@ -4084,7 +4107,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="2">
         <v>34060</v>
       </c>
       <c r="B467">
@@ -4092,7 +4115,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="2">
         <v>34090</v>
       </c>
       <c r="B468">
@@ -4100,7 +4123,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="2">
         <v>34121</v>
       </c>
       <c r="B469">
@@ -4108,7 +4131,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="2">
         <v>34151</v>
       </c>
       <c r="B470">
@@ -4116,7 +4139,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="2">
         <v>34182</v>
       </c>
       <c r="B471">
@@ -4124,7 +4147,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="2">
         <v>34213</v>
       </c>
       <c r="B472">
@@ -4132,7 +4155,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="2">
         <v>34243</v>
       </c>
       <c r="B473">
@@ -4140,7 +4163,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="2">
         <v>34274</v>
       </c>
       <c r="B474">
@@ -4148,7 +4171,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="2">
         <v>34304</v>
       </c>
       <c r="B475">
@@ -4156,7 +4179,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="2">
         <v>34335</v>
       </c>
       <c r="B476">
@@ -4164,7 +4187,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="2">
         <v>34366</v>
       </c>
       <c r="B477">
@@ -4172,7 +4195,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="2">
         <v>34394</v>
       </c>
       <c r="B478">
@@ -4180,7 +4203,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="2">
         <v>34425</v>
       </c>
       <c r="B479">
@@ -4188,7 +4211,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="2">
         <v>34455</v>
       </c>
       <c r="B480">
@@ -4196,7 +4219,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="2">
         <v>34486</v>
       </c>
       <c r="B481">
@@ -4204,7 +4227,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="2">
         <v>34516</v>
       </c>
       <c r="B482">
@@ -4212,7 +4235,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="2">
         <v>34547</v>
       </c>
       <c r="B483">
@@ -4220,7 +4243,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="2">
         <v>34578</v>
       </c>
       <c r="B484">
@@ -4228,7 +4251,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="2">
         <v>34608</v>
       </c>
       <c r="B485">
@@ -4236,7 +4259,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="2">
         <v>34639</v>
       </c>
       <c r="B486">
@@ -4244,7 +4267,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="2">
         <v>34669</v>
       </c>
       <c r="B487">
@@ -4252,7 +4275,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="2">
         <v>34700</v>
       </c>
       <c r="B488">
@@ -4260,7 +4283,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="2">
         <v>34731</v>
       </c>
       <c r="B489">
@@ -4268,7 +4291,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="2">
         <v>34759</v>
       </c>
       <c r="B490">
@@ -4276,7 +4299,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="2">
         <v>34790</v>
       </c>
       <c r="B491">
@@ -4284,7 +4307,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="2">
         <v>34820</v>
       </c>
       <c r="B492">
@@ -4292,7 +4315,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="2">
         <v>34851</v>
       </c>
       <c r="B493">
@@ -4300,7 +4323,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="2">
         <v>34881</v>
       </c>
       <c r="B494">
@@ -4308,7 +4331,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="2">
         <v>34912</v>
       </c>
       <c r="B495">
@@ -4316,7 +4339,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="2">
         <v>34943</v>
       </c>
       <c r="B496">
@@ -4324,7 +4347,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="2">
         <v>34973</v>
       </c>
       <c r="B497">
@@ -4332,7 +4355,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="2">
         <v>35004</v>
       </c>
       <c r="B498">
@@ -4340,7 +4363,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="2">
         <v>35034</v>
       </c>
       <c r="B499">
@@ -4348,7 +4371,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="2">
         <v>35065</v>
       </c>
       <c r="B500">
@@ -4356,7 +4379,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="2">
         <v>35096</v>
       </c>
       <c r="B501">
@@ -4364,7 +4387,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="2">
         <v>35125</v>
       </c>
       <c r="B502">
@@ -4372,7 +4395,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="2">
         <v>35156</v>
       </c>
       <c r="B503">
@@ -4380,7 +4403,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="2">
         <v>35186</v>
       </c>
       <c r="B504">
@@ -4388,7 +4411,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="2">
         <v>35217</v>
       </c>
       <c r="B505">
@@ -4396,7 +4419,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="2">
         <v>35247</v>
       </c>
       <c r="B506">
@@ -4404,7 +4427,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="2">
         <v>35278</v>
       </c>
       <c r="B507">
@@ -4412,7 +4435,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="2">
         <v>35309</v>
       </c>
       <c r="B508">
@@ -4420,7 +4443,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="2">
         <v>35339</v>
       </c>
       <c r="B509">
@@ -4428,7 +4451,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="2">
         <v>35370</v>
       </c>
       <c r="B510">
@@ -4436,7 +4459,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="2">
         <v>35400</v>
       </c>
       <c r="B511">
@@ -4444,7 +4467,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="2">
         <v>35431</v>
       </c>
       <c r="B512">
@@ -4452,7 +4475,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="2">
         <v>35462</v>
       </c>
       <c r="B513">
@@ -4460,7 +4483,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="2">
         <v>35490</v>
       </c>
       <c r="B514">
@@ -4468,7 +4491,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="2">
         <v>35521</v>
       </c>
       <c r="B515">
@@ -4476,7 +4499,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="2">
         <v>35551</v>
       </c>
       <c r="B516">
@@ -4484,7 +4507,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="2">
         <v>35582</v>
       </c>
       <c r="B517">
@@ -4492,7 +4515,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="2">
         <v>35612</v>
       </c>
       <c r="B518">
@@ -4500,7 +4523,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="2">
         <v>35643</v>
       </c>
       <c r="B519">
@@ -4508,7 +4531,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="2">
         <v>35674</v>
       </c>
       <c r="B520">
@@ -4516,7 +4539,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="2">
         <v>35704</v>
       </c>
       <c r="B521">
@@ -4524,7 +4547,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="2">
         <v>35735</v>
       </c>
       <c r="B522">
@@ -4532,7 +4555,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="2">
         <v>35765</v>
       </c>
       <c r="B523">
@@ -4540,7 +4563,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="2">
         <v>35796</v>
       </c>
       <c r="B524">
@@ -4548,7 +4571,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="2">
         <v>35827</v>
       </c>
       <c r="B525">
@@ -4556,7 +4579,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="2">
         <v>35855</v>
       </c>
       <c r="B526">
@@ -4564,7 +4587,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="2">
         <v>35886</v>
       </c>
       <c r="B527">
@@ -4572,7 +4595,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="2">
         <v>35916</v>
       </c>
       <c r="B528">
@@ -4580,7 +4603,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="2">
         <v>35947</v>
       </c>
       <c r="B529">
@@ -4588,7 +4611,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="2">
         <v>35977</v>
       </c>
       <c r="B530">
@@ -4596,7 +4619,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="2">
         <v>36008</v>
       </c>
       <c r="B531">
@@ -4604,7 +4627,7 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="2">
         <v>36039</v>
       </c>
       <c r="B532">
@@ -4612,7 +4635,7 @@
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="2">
         <v>36069</v>
       </c>
       <c r="B533">
@@ -4620,7 +4643,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="2">
         <v>36100</v>
       </c>
       <c r="B534">
@@ -4628,7 +4651,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="2">
         <v>36130</v>
       </c>
       <c r="B535">
@@ -4636,7 +4659,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="2">
         <v>36161</v>
       </c>
       <c r="B536">
@@ -4644,7 +4667,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="2">
         <v>36192</v>
       </c>
       <c r="B537">
@@ -4652,7 +4675,7 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="2">
         <v>36220</v>
       </c>
       <c r="B538">
@@ -4660,7 +4683,7 @@
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="2">
         <v>36251</v>
       </c>
       <c r="B539">
@@ -4668,7 +4691,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="2">
         <v>36281</v>
       </c>
       <c r="B540">
@@ -4676,7 +4699,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="2">
         <v>36312</v>
       </c>
       <c r="B541">
@@ -4684,7 +4707,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="2">
         <v>36342</v>
       </c>
       <c r="B542">
@@ -4692,7 +4715,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="2">
         <v>36373</v>
       </c>
       <c r="B543">
@@ -4700,7 +4723,7 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="2">
         <v>36404</v>
       </c>
       <c r="B544">
@@ -4708,7 +4731,7 @@
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="2">
         <v>36434</v>
       </c>
       <c r="B545">
@@ -4716,7 +4739,7 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="2">
         <v>36465</v>
       </c>
       <c r="B546">
@@ -4724,7 +4747,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="2">
         <v>36495</v>
       </c>
       <c r="B547">
@@ -4732,7 +4755,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="2">
         <v>36526</v>
       </c>
       <c r="B548">
@@ -4740,7 +4763,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="2">
         <v>36557</v>
       </c>
       <c r="B549">
@@ -4748,7 +4771,7 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="2">
         <v>36586</v>
       </c>
       <c r="B550">
@@ -4756,7 +4779,7 @@
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="2">
         <v>36617</v>
       </c>
       <c r="B551">
@@ -4764,7 +4787,7 @@
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="2">
         <v>36647</v>
       </c>
       <c r="B552">
@@ -4772,7 +4795,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="2">
         <v>36678</v>
       </c>
       <c r="B553">
@@ -4780,7 +4803,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="2">
         <v>36708</v>
       </c>
       <c r="B554">
@@ -4788,7 +4811,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="2">
         <v>36739</v>
       </c>
       <c r="B555">
@@ -4796,7 +4819,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="2">
         <v>36770</v>
       </c>
       <c r="B556">
@@ -4804,7 +4827,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="2">
         <v>36800</v>
       </c>
       <c r="B557">
@@ -4812,7 +4835,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="2">
         <v>36831</v>
       </c>
       <c r="B558">
@@ -4820,7 +4843,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="2">
         <v>36861</v>
       </c>
       <c r="B559">
@@ -4828,7 +4851,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="2">
         <v>36892</v>
       </c>
       <c r="B560">
@@ -4836,7 +4859,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="2">
         <v>36923</v>
       </c>
       <c r="B561">
@@ -4844,7 +4867,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="2">
         <v>36951</v>
       </c>
       <c r="B562">
@@ -4852,7 +4875,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="2">
         <v>36982</v>
       </c>
       <c r="B563">
@@ -4860,7 +4883,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="2">
         <v>37012</v>
       </c>
       <c r="B564">
@@ -4868,7 +4891,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="2">
         <v>37043</v>
       </c>
       <c r="B565">
@@ -4876,7 +4899,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="2">
         <v>37073</v>
       </c>
       <c r="B566">
@@ -4884,7 +4907,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="2">
         <v>37104</v>
       </c>
       <c r="B567">
@@ -4892,7 +4915,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="2">
         <v>37135</v>
       </c>
       <c r="B568">
@@ -4900,7 +4923,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="2">
         <v>37165</v>
       </c>
       <c r="B569">
@@ -4908,7 +4931,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="2">
         <v>37196</v>
       </c>
       <c r="B570">
@@ -4916,7 +4939,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="2">
         <v>37226</v>
       </c>
       <c r="B571">
@@ -4924,7 +4947,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="2">
         <v>37257</v>
       </c>
       <c r="B572">
@@ -4932,7 +4955,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="2">
         <v>37288</v>
       </c>
       <c r="B573">
@@ -4940,7 +4963,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="2">
         <v>37316</v>
       </c>
       <c r="B574">
@@ -4948,7 +4971,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575">
+      <c r="A575" s="2">
         <v>37347</v>
       </c>
       <c r="B575">
@@ -4956,7 +4979,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576">
+      <c r="A576" s="2">
         <v>37377</v>
       </c>
       <c r="B576">
@@ -4964,7 +4987,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577">
+      <c r="A577" s="2">
         <v>37408</v>
       </c>
       <c r="B577">
@@ -4972,7 +4995,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578">
+      <c r="A578" s="2">
         <v>37438</v>
       </c>
       <c r="B578">
@@ -4980,7 +5003,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579">
+      <c r="A579" s="2">
         <v>37469</v>
       </c>
       <c r="B579">
@@ -4988,7 +5011,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580">
+      <c r="A580" s="2">
         <v>37500</v>
       </c>
       <c r="B580">
@@ -4996,7 +5019,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581">
+      <c r="A581" s="2">
         <v>37530</v>
       </c>
       <c r="B581">
@@ -5004,7 +5027,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582">
+      <c r="A582" s="2">
         <v>37561</v>
       </c>
       <c r="B582">
@@ -5012,7 +5035,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583">
+      <c r="A583" s="2">
         <v>37591</v>
       </c>
       <c r="B583">
@@ -5020,7 +5043,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584">
+      <c r="A584" s="2">
         <v>37622</v>
       </c>
       <c r="B584">
@@ -5028,7 +5051,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585">
+      <c r="A585" s="2">
         <v>37653</v>
       </c>
       <c r="B585">
@@ -5036,7 +5059,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586">
+      <c r="A586" s="2">
         <v>37681</v>
       </c>
       <c r="B586">
@@ -5044,7 +5067,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587">
+      <c r="A587" s="2">
         <v>37712</v>
       </c>
       <c r="B587">
@@ -5052,7 +5075,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588">
+      <c r="A588" s="2">
         <v>37742</v>
       </c>
       <c r="B588">
@@ -5060,7 +5083,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589">
+      <c r="A589" s="2">
         <v>37773</v>
       </c>
       <c r="B589">
@@ -5068,7 +5091,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590">
+      <c r="A590" s="2">
         <v>37803</v>
       </c>
       <c r="B590">
@@ -5076,7 +5099,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591">
+      <c r="A591" s="2">
         <v>37834</v>
       </c>
       <c r="B591">
@@ -5084,7 +5107,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592">
+      <c r="A592" s="2">
         <v>37865</v>
       </c>
       <c r="B592">
@@ -5092,7 +5115,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593">
+      <c r="A593" s="2">
         <v>37895</v>
       </c>
       <c r="B593">
@@ -5100,7 +5123,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594">
+      <c r="A594" s="2">
         <v>37926</v>
       </c>
       <c r="B594">
@@ -5108,7 +5131,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595">
+      <c r="A595" s="2">
         <v>37956</v>
       </c>
       <c r="B595">
@@ -5116,7 +5139,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596">
+      <c r="A596" s="2">
         <v>37987</v>
       </c>
       <c r="B596">
@@ -5124,7 +5147,7 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597">
+      <c r="A597" s="2">
         <v>38018</v>
       </c>
       <c r="B597">
@@ -5132,7 +5155,7 @@
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598">
+      <c r="A598" s="2">
         <v>38047</v>
       </c>
       <c r="B598">
@@ -5140,7 +5163,7 @@
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599">
+      <c r="A599" s="2">
         <v>38078</v>
       </c>
       <c r="B599">
@@ -5148,7 +5171,7 @@
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600">
+      <c r="A600" s="2">
         <v>38108</v>
       </c>
       <c r="B600">
@@ -5156,7 +5179,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601">
+      <c r="A601" s="2">
         <v>38139</v>
       </c>
       <c r="B601">
@@ -5164,7 +5187,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602">
+      <c r="A602" s="2">
         <v>38169</v>
       </c>
       <c r="B602">
@@ -5172,7 +5195,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603">
+      <c r="A603" s="2">
         <v>38200</v>
       </c>
       <c r="B603">
@@ -5180,7 +5203,7 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604">
+      <c r="A604" s="2">
         <v>38231</v>
       </c>
       <c r="B604">
@@ -5188,7 +5211,7 @@
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605">
+      <c r="A605" s="2">
         <v>38261</v>
       </c>
       <c r="B605">
@@ -5196,7 +5219,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606">
+      <c r="A606" s="2">
         <v>38292</v>
       </c>
       <c r="B606">
@@ -5204,7 +5227,7 @@
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607">
+      <c r="A607" s="2">
         <v>38322</v>
       </c>
       <c r="B607">
@@ -5212,7 +5235,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608">
+      <c r="A608" s="2">
         <v>38353</v>
       </c>
       <c r="B608">
@@ -5220,7 +5243,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609">
+      <c r="A609" s="2">
         <v>38384</v>
       </c>
       <c r="B609">
@@ -5228,7 +5251,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610">
+      <c r="A610" s="2">
         <v>38412</v>
       </c>
       <c r="B610">
@@ -5236,7 +5259,7 @@
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="A611" s="2">
         <v>38443</v>
       </c>
       <c r="B611">
@@ -5244,7 +5267,7 @@
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612">
+      <c r="A612" s="2">
         <v>38473</v>
       </c>
       <c r="B612">
@@ -5252,7 +5275,7 @@
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613">
+      <c r="A613" s="2">
         <v>38504</v>
       </c>
       <c r="B613">
@@ -5260,7 +5283,7 @@
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614">
+      <c r="A614" s="2">
         <v>38534</v>
       </c>
       <c r="B614">
@@ -5268,7 +5291,7 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615">
+      <c r="A615" s="2">
         <v>38565</v>
       </c>
       <c r="B615">
@@ -5276,7 +5299,7 @@
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616">
+      <c r="A616" s="2">
         <v>38596</v>
       </c>
       <c r="B616">
@@ -5284,7 +5307,7 @@
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617">
+      <c r="A617" s="2">
         <v>38626</v>
       </c>
       <c r="B617">
@@ -5292,7 +5315,7 @@
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618">
+      <c r="A618" s="2">
         <v>38657</v>
       </c>
       <c r="B618">
@@ -5300,7 +5323,7 @@
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619">
+      <c r="A619" s="2">
         <v>38687</v>
       </c>
       <c r="B619">
@@ -5308,7 +5331,7 @@
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620">
+      <c r="A620" s="2">
         <v>38718</v>
       </c>
       <c r="B620">
@@ -5316,7 +5339,7 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621">
+      <c r="A621" s="2">
         <v>38749</v>
       </c>
       <c r="B621">
@@ -5324,7 +5347,7 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622">
+      <c r="A622" s="2">
         <v>38777</v>
       </c>
       <c r="B622">
@@ -5332,7 +5355,7 @@
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623">
+      <c r="A623" s="2">
         <v>38808</v>
       </c>
       <c r="B623">
@@ -5340,7 +5363,7 @@
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624">
+      <c r="A624" s="2">
         <v>38838</v>
       </c>
       <c r="B624">
@@ -5348,7 +5371,7 @@
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625">
+      <c r="A625" s="2">
         <v>38869</v>
       </c>
       <c r="B625">
@@ -5356,7 +5379,7 @@
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626">
+      <c r="A626" s="2">
         <v>38899</v>
       </c>
       <c r="B626">
@@ -5364,7 +5387,7 @@
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627">
+      <c r="A627" s="2">
         <v>38930</v>
       </c>
       <c r="B627">
@@ -5372,7 +5395,7 @@
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628">
+      <c r="A628" s="2">
         <v>38961</v>
       </c>
       <c r="B628">
@@ -5380,7 +5403,7 @@
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629">
+      <c r="A629" s="2">
         <v>38991</v>
       </c>
       <c r="B629">
@@ -5388,7 +5411,7 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630">
+      <c r="A630" s="2">
         <v>39022</v>
       </c>
       <c r="B630">
@@ -5396,7 +5419,7 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631">
+      <c r="A631" s="2">
         <v>39052</v>
       </c>
       <c r="B631">
@@ -5404,7 +5427,7 @@
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632">
+      <c r="A632" s="2">
         <v>39083</v>
       </c>
       <c r="B632">
@@ -5412,7 +5435,7 @@
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633">
+      <c r="A633" s="2">
         <v>39114</v>
       </c>
       <c r="B633">
@@ -5420,7 +5443,7 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634">
+      <c r="A634" s="2">
         <v>39142</v>
       </c>
       <c r="B634">
@@ -5428,7 +5451,7 @@
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635">
+      <c r="A635" s="2">
         <v>39173</v>
       </c>
       <c r="B635">
@@ -5436,7 +5459,7 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="2">
         <v>39203</v>
       </c>
       <c r="B636">
@@ -5444,7 +5467,7 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637">
+      <c r="A637" s="2">
         <v>39234</v>
       </c>
       <c r="B637">
@@ -5452,7 +5475,7 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638">
+      <c r="A638" s="2">
         <v>39264</v>
       </c>
       <c r="B638">
@@ -5460,7 +5483,7 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639">
+      <c r="A639" s="2">
         <v>39295</v>
       </c>
       <c r="B639">
@@ -5468,7 +5491,7 @@
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640">
+      <c r="A640" s="2">
         <v>39326</v>
       </c>
       <c r="B640">
@@ -5476,7 +5499,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641">
+      <c r="A641" s="2">
         <v>39356</v>
       </c>
       <c r="B641">
@@ -5484,7 +5507,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642">
+      <c r="A642" s="2">
         <v>39387</v>
       </c>
       <c r="B642">
@@ -5492,7 +5515,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643">
+      <c r="A643" s="2">
         <v>39417</v>
       </c>
       <c r="B643">
@@ -5500,7 +5523,7 @@
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644">
+      <c r="A644" s="2">
         <v>39448</v>
       </c>
       <c r="B644">
@@ -5508,7 +5531,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645">
+      <c r="A645" s="2">
         <v>39479</v>
       </c>
       <c r="B645">
@@ -5516,7 +5539,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646">
+      <c r="A646" s="2">
         <v>39508</v>
       </c>
       <c r="B646">
@@ -5524,7 +5547,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647">
+      <c r="A647" s="2">
         <v>39539</v>
       </c>
       <c r="B647">
@@ -5532,7 +5555,7 @@
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648">
+      <c r="A648" s="2">
         <v>39569</v>
       </c>
       <c r="B648">
@@ -5540,7 +5563,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649">
+      <c r="A649" s="2">
         <v>39600</v>
       </c>
       <c r="B649">
@@ -5548,7 +5571,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650">
+      <c r="A650" s="2">
         <v>39630</v>
       </c>
       <c r="B650">
@@ -5556,7 +5579,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651">
+      <c r="A651" s="2">
         <v>39661</v>
       </c>
       <c r="B651">
@@ -5564,7 +5587,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652">
+      <c r="A652" s="2">
         <v>39692</v>
       </c>
       <c r="B652">
@@ -5572,7 +5595,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653">
+      <c r="A653" s="2">
         <v>39722</v>
       </c>
       <c r="B653">
@@ -5580,7 +5603,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654">
+      <c r="A654" s="2">
         <v>39753</v>
       </c>
       <c r="B654">
@@ -5588,7 +5611,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655">
+      <c r="A655" s="2">
         <v>39783</v>
       </c>
       <c r="B655">
@@ -5596,7 +5619,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656">
+      <c r="A656" s="2">
         <v>39814</v>
       </c>
       <c r="B656">
@@ -5604,7 +5627,7 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657">
+      <c r="A657" s="2">
         <v>39845</v>
       </c>
       <c r="B657">
@@ -5612,7 +5635,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658">
+      <c r="A658" s="2">
         <v>39873</v>
       </c>
       <c r="B658">
@@ -5620,7 +5643,7 @@
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659">
+      <c r="A659" s="2">
         <v>39904</v>
       </c>
       <c r="B659">
@@ -5628,7 +5651,7 @@
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660">
+      <c r="A660" s="2">
         <v>39934</v>
       </c>
       <c r="B660">
@@ -5636,7 +5659,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661">
+      <c r="A661" s="2">
         <v>39965</v>
       </c>
       <c r="B661">
@@ -5644,7 +5667,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662">
+      <c r="A662" s="2">
         <v>39995</v>
       </c>
       <c r="B662">
@@ -5652,7 +5675,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663">
+      <c r="A663" s="2">
         <v>40026</v>
       </c>
       <c r="B663">
@@ -5660,7 +5683,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664">
+      <c r="A664" s="2">
         <v>40057</v>
       </c>
       <c r="B664">
@@ -5668,7 +5691,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665">
+      <c r="A665" s="2">
         <v>40087</v>
       </c>
       <c r="B665">
@@ -5676,7 +5699,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666">
+      <c r="A666" s="2">
         <v>40118</v>
       </c>
       <c r="B666">
@@ -5684,7 +5707,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667">
+      <c r="A667" s="2">
         <v>40148</v>
       </c>
       <c r="B667">
@@ -5692,7 +5715,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668">
+      <c r="A668" s="2">
         <v>40179</v>
       </c>
       <c r="B668">
@@ -5700,7 +5723,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669">
+      <c r="A669" s="2">
         <v>40210</v>
       </c>
       <c r="B669">
@@ -5708,7 +5731,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670">
+      <c r="A670" s="2">
         <v>40238</v>
       </c>
       <c r="B670">
@@ -5716,7 +5739,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671">
+      <c r="A671" s="2">
         <v>40269</v>
       </c>
       <c r="B671">
@@ -5724,7 +5747,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672">
+      <c r="A672" s="2">
         <v>40299</v>
       </c>
       <c r="B672">
@@ -5732,7 +5755,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673">
+      <c r="A673" s="2">
         <v>40330</v>
       </c>
       <c r="B673">
@@ -5740,7 +5763,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674">
+      <c r="A674" s="2">
         <v>40360</v>
       </c>
       <c r="B674">
@@ -5748,7 +5771,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675">
+      <c r="A675" s="2">
         <v>40391</v>
       </c>
       <c r="B675">
@@ -5756,7 +5779,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676">
+      <c r="A676" s="2">
         <v>40422</v>
       </c>
       <c r="B676">
@@ -5764,7 +5787,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677">
+      <c r="A677" s="2">
         <v>40452</v>
       </c>
       <c r="B677">
@@ -5772,7 +5795,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678">
+      <c r="A678" s="2">
         <v>40483</v>
       </c>
       <c r="B678">
@@ -5780,7 +5803,7 @@
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679">
+      <c r="A679" s="2">
         <v>40513</v>
       </c>
       <c r="B679">
@@ -5788,7 +5811,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680">
+      <c r="A680" s="2">
         <v>40544</v>
       </c>
       <c r="B680">
@@ -5796,7 +5819,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681">
+      <c r="A681" s="2">
         <v>40575</v>
       </c>
       <c r="B681">
@@ -5804,7 +5827,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682">
+      <c r="A682" s="2">
         <v>40603</v>
       </c>
       <c r="B682">
@@ -5812,7 +5835,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683">
+      <c r="A683" s="2">
         <v>40634</v>
       </c>
       <c r="B683">
@@ -5820,7 +5843,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684">
+      <c r="A684" s="2">
         <v>40664</v>
       </c>
       <c r="B684">
@@ -5828,7 +5851,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685">
+      <c r="A685" s="2">
         <v>40695</v>
       </c>
       <c r="B685">
@@ -5836,7 +5859,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686">
+      <c r="A686" s="2">
         <v>40725</v>
       </c>
       <c r="B686">
@@ -5844,7 +5867,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687">
+      <c r="A687" s="2">
         <v>40756</v>
       </c>
       <c r="B687">
@@ -5852,7 +5875,7 @@
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688">
+      <c r="A688" s="2">
         <v>40787</v>
       </c>
       <c r="B688">
@@ -5860,7 +5883,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689">
+      <c r="A689" s="2">
         <v>40817</v>
       </c>
       <c r="B689">
@@ -5868,7 +5891,7 @@
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690">
+      <c r="A690" s="2">
         <v>40848</v>
       </c>
       <c r="B690">
@@ -5876,7 +5899,7 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691">
+      <c r="A691" s="2">
         <v>40878</v>
       </c>
       <c r="B691">
@@ -5884,7 +5907,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692">
+      <c r="A692" s="2">
         <v>40909</v>
       </c>
       <c r="B692">
@@ -5892,7 +5915,7 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693">
+      <c r="A693" s="2">
         <v>40940</v>
       </c>
       <c r="B693">
@@ -5900,7 +5923,7 @@
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694">
+      <c r="A694" s="2">
         <v>40969</v>
       </c>
       <c r="B694">
@@ -5908,7 +5931,7 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695">
+      <c r="A695" s="2">
         <v>41000</v>
       </c>
       <c r="B695">
@@ -5916,7 +5939,7 @@
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696">
+      <c r="A696" s="2">
         <v>41030</v>
       </c>
       <c r="B696">
@@ -5924,7 +5947,7 @@
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697">
+      <c r="A697" s="2">
         <v>41061</v>
       </c>
       <c r="B697">
@@ -5932,7 +5955,7 @@
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698">
+      <c r="A698" s="2">
         <v>41091</v>
       </c>
       <c r="B698">
@@ -5940,7 +5963,7 @@
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699">
+      <c r="A699" s="2">
         <v>41122</v>
       </c>
       <c r="B699">
@@ -5948,7 +5971,7 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700">
+      <c r="A700" s="2">
         <v>41153</v>
       </c>
       <c r="B700">
@@ -5956,7 +5979,7 @@
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701">
+      <c r="A701" s="2">
         <v>41183</v>
       </c>
       <c r="B701">
@@ -5964,7 +5987,7 @@
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702">
+      <c r="A702" s="2">
         <v>41214</v>
       </c>
       <c r="B702">
@@ -5972,7 +5995,7 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703">
+      <c r="A703" s="2">
         <v>41244</v>
       </c>
       <c r="B703">
@@ -5980,7 +6003,7 @@
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704">
+      <c r="A704" s="2">
         <v>41275</v>
       </c>
       <c r="B704">
@@ -5988,7 +6011,7 @@
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705">
+      <c r="A705" s="2">
         <v>41306</v>
       </c>
       <c r="B705">
@@ -5996,7 +6019,7 @@
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706">
+      <c r="A706" s="2">
         <v>41334</v>
       </c>
       <c r="B706">
@@ -6004,7 +6027,7 @@
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707">
+      <c r="A707" s="2">
         <v>41365</v>
       </c>
       <c r="B707">
@@ -6012,7 +6035,7 @@
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708">
+      <c r="A708" s="2">
         <v>41395</v>
       </c>
       <c r="B708">
@@ -6020,7 +6043,7 @@
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709">
+      <c r="A709" s="2">
         <v>41426</v>
       </c>
       <c r="B709">
@@ -6028,7 +6051,7 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710">
+      <c r="A710" s="2">
         <v>41456</v>
       </c>
       <c r="B710">
@@ -6036,7 +6059,7 @@
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711">
+      <c r="A711" s="2">
         <v>41487</v>
       </c>
       <c r="B711">
@@ -6044,7 +6067,7 @@
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712">
+      <c r="A712" s="2">
         <v>41518</v>
       </c>
       <c r="B712">
@@ -6052,7 +6075,7 @@
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713">
+      <c r="A713" s="2">
         <v>41548</v>
       </c>
       <c r="B713">
@@ -6060,7 +6083,7 @@
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714">
+      <c r="A714" s="2">
         <v>41579</v>
       </c>
       <c r="B714">
@@ -6068,7 +6091,7 @@
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715">
+      <c r="A715" s="2">
         <v>41609</v>
       </c>
       <c r="B715">
@@ -6076,7 +6099,7 @@
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716">
+      <c r="A716" s="2">
         <v>41640</v>
       </c>
       <c r="B716">
@@ -6084,7 +6107,7 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717">
+      <c r="A717" s="2">
         <v>41671</v>
       </c>
       <c r="B717">
@@ -6092,7 +6115,7 @@
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718">
+      <c r="A718" s="2">
         <v>41699</v>
       </c>
       <c r="B718">
@@ -6100,7 +6123,7 @@
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719">
+      <c r="A719" s="2">
         <v>41730</v>
       </c>
       <c r="B719">
@@ -6108,7 +6131,7 @@
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720">
+      <c r="A720" s="2">
         <v>41760</v>
       </c>
       <c r="B720">
@@ -6116,7 +6139,7 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721">
+      <c r="A721" s="2">
         <v>41791</v>
       </c>
       <c r="B721">
@@ -6124,7 +6147,7 @@
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722">
+      <c r="A722" s="2">
         <v>41821</v>
       </c>
       <c r="B722">
@@ -6132,7 +6155,7 @@
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723">
+      <c r="A723" s="2">
         <v>41852</v>
       </c>
       <c r="B723">
@@ -6140,7 +6163,7 @@
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724">
+      <c r="A724" s="2">
         <v>41883</v>
       </c>
       <c r="B724">
@@ -6148,7 +6171,7 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725">
+      <c r="A725" s="2">
         <v>41913</v>
       </c>
       <c r="B725">
@@ -6156,7 +6179,7 @@
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726">
+      <c r="A726" s="2">
         <v>41944</v>
       </c>
       <c r="B726">
@@ -6164,7 +6187,7 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727">
+      <c r="A727" s="2">
         <v>41974</v>
       </c>
       <c r="B727">
@@ -6172,7 +6195,7 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728">
+      <c r="A728" s="2">
         <v>42005</v>
       </c>
       <c r="B728">
@@ -6180,7 +6203,7 @@
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729">
+      <c r="A729" s="2">
         <v>42036</v>
       </c>
       <c r="B729">
@@ -6188,7 +6211,7 @@
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730">
+      <c r="A730" s="2">
         <v>42064</v>
       </c>
       <c r="B730">
@@ -6196,7 +6219,7 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731">
+      <c r="A731" s="2">
         <v>42095</v>
       </c>
       <c r="B731">
@@ -6204,7 +6227,7 @@
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732">
+      <c r="A732" s="2">
         <v>42125</v>
       </c>
       <c r="B732">
@@ -6212,7 +6235,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733">
+      <c r="A733" s="2">
         <v>42156</v>
       </c>
       <c r="B733">
@@ -6220,7 +6243,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734">
+      <c r="A734" s="2">
         <v>42186</v>
       </c>
       <c r="B734">
@@ -6228,7 +6251,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735">
+      <c r="A735" s="2">
         <v>42217</v>
       </c>
       <c r="B735">
@@ -6236,7 +6259,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736">
+      <c r="A736" s="2">
         <v>42248</v>
       </c>
       <c r="B736">
@@ -6244,7 +6267,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737">
+      <c r="A737" s="2">
         <v>42278</v>
       </c>
       <c r="B737">
@@ -6252,7 +6275,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738">
+      <c r="A738" s="2">
         <v>42309</v>
       </c>
       <c r="B738">
@@ -6260,7 +6283,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739">
+      <c r="A739" s="2">
         <v>42339</v>
       </c>
       <c r="B739">
@@ -6268,7 +6291,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740">
+      <c r="A740" s="2">
         <v>42370</v>
       </c>
       <c r="B740">
@@ -6276,7 +6299,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741">
+      <c r="A741" s="2">
         <v>42401</v>
       </c>
       <c r="B741">
@@ -6284,7 +6307,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742">
+      <c r="A742" s="2">
         <v>42430</v>
       </c>
       <c r="B742">
@@ -6292,7 +6315,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743">
+      <c r="A743" s="2">
         <v>42461</v>
       </c>
       <c r="B743">
@@ -6300,7 +6323,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744">
+      <c r="A744" s="2">
         <v>42491</v>
       </c>
       <c r="B744">
@@ -6308,7 +6331,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745">
+      <c r="A745" s="2">
         <v>42522</v>
       </c>
       <c r="B745">
@@ -6316,7 +6339,7 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746">
+      <c r="A746" s="2">
         <v>42552</v>
       </c>
       <c r="B746">
@@ -6324,7 +6347,7 @@
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747">
+      <c r="A747" s="2">
         <v>42583</v>
       </c>
       <c r="B747">
@@ -6332,7 +6355,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748">
+      <c r="A748" s="2">
         <v>42614</v>
       </c>
       <c r="B748">
@@ -6340,7 +6363,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749">
+      <c r="A749" s="2">
         <v>42644</v>
       </c>
       <c r="B749">
@@ -6348,7 +6371,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750">
+      <c r="A750" s="2">
         <v>42675</v>
       </c>
       <c r="B750">
@@ -6356,7 +6379,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751">
+      <c r="A751" s="2">
         <v>42705</v>
       </c>
       <c r="B751">
@@ -6364,7 +6387,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752">
+      <c r="A752" s="2">
         <v>42736</v>
       </c>
       <c r="B752">
@@ -6372,7 +6395,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753">
+      <c r="A753" s="2">
         <v>42767</v>
       </c>
       <c r="B753">
@@ -6380,7 +6403,7 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754">
+      <c r="A754" s="2">
         <v>42795</v>
       </c>
       <c r="B754">
@@ -6388,7 +6411,7 @@
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755">
+      <c r="A755" s="2">
         <v>42826</v>
       </c>
       <c r="B755">
@@ -6396,7 +6419,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756">
+      <c r="A756" s="2">
         <v>42856</v>
       </c>
       <c r="B756">
@@ -6404,7 +6427,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757">
+      <c r="A757" s="2">
         <v>42887</v>
       </c>
       <c r="B757">
@@ -6412,7 +6435,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758">
+      <c r="A758" s="2">
         <v>42917</v>
       </c>
       <c r="B758">
@@ -6420,7 +6443,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759">
+      <c r="A759" s="2">
         <v>42948</v>
       </c>
       <c r="B759">
@@ -6428,7 +6451,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760">
+      <c r="A760" s="2">
         <v>42979</v>
       </c>
       <c r="B760">
@@ -6436,7 +6459,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761">
+      <c r="A761" s="2">
         <v>43009</v>
       </c>
       <c r="B761">
@@ -6444,7 +6467,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762">
+      <c r="A762" s="2">
         <v>43040</v>
       </c>
       <c r="B762">
@@ -6452,7 +6475,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763">
+      <c r="A763" s="2">
         <v>43070</v>
       </c>
       <c r="B763">
@@ -6460,7 +6483,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764">
+      <c r="A764" s="2">
         <v>43101</v>
       </c>
       <c r="B764">
@@ -6468,7 +6491,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765">
+      <c r="A765" s="2">
         <v>43132</v>
       </c>
       <c r="B765">
@@ -6476,7 +6499,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766">
+      <c r="A766" s="2">
         <v>43160</v>
       </c>
       <c r="B766">
@@ -6484,7 +6507,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767">
+      <c r="A767" s="2">
         <v>43191</v>
       </c>
       <c r="B767">
@@ -6492,7 +6515,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768">
+      <c r="A768" s="2">
         <v>43221</v>
       </c>
       <c r="B768">
@@ -6500,7 +6523,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769">
+      <c r="A769" s="2">
         <v>43252</v>
       </c>
       <c r="B769">
@@ -6508,7 +6531,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770">
+      <c r="A770" s="2">
         <v>43282</v>
       </c>
       <c r="B770">
@@ -6516,7 +6539,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771">
+      <c r="A771" s="2">
         <v>43313</v>
       </c>
       <c r="B771">
@@ -6524,7 +6547,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772">
+      <c r="A772" s="2">
         <v>43344</v>
       </c>
       <c r="B772">
@@ -6532,7 +6555,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773">
+      <c r="A773" s="2">
         <v>43374</v>
       </c>
       <c r="B773">
@@ -6540,7 +6563,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774">
+      <c r="A774" s="2">
         <v>43405</v>
       </c>
       <c r="B774">
@@ -6548,7 +6571,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775">
+      <c r="A775" s="2">
         <v>43435</v>
       </c>
       <c r="B775">
@@ -6556,7 +6579,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776">
+      <c r="A776" s="2">
         <v>43466</v>
       </c>
       <c r="B776">
@@ -6564,7 +6587,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777">
+      <c r="A777" s="2">
         <v>43497</v>
       </c>
       <c r="B777">
@@ -6572,7 +6595,7 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778">
+      <c r="A778" s="2">
         <v>43525</v>
       </c>
       <c r="B778">
@@ -6580,7 +6603,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779">
+      <c r="A779" s="2">
         <v>43556</v>
       </c>
       <c r="B779">
@@ -6588,7 +6611,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780">
+      <c r="A780" s="2">
         <v>43586</v>
       </c>
       <c r="B780">
@@ -6596,7 +6619,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781">
+      <c r="A781" s="2">
         <v>43617</v>
       </c>
       <c r="B781">
@@ -6604,7 +6627,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782">
+      <c r="A782" s="2">
         <v>43647</v>
       </c>
       <c r="B782">
@@ -6612,7 +6635,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783">
+      <c r="A783" s="2">
         <v>43678</v>
       </c>
       <c r="B783">
@@ -6620,7 +6643,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784">
+      <c r="A784" s="2">
         <v>43709</v>
       </c>
       <c r="B784">
@@ -6628,7 +6651,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785">
+      <c r="A785" s="2">
         <v>43739</v>
       </c>
       <c r="B785">
@@ -6636,7 +6659,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786">
+      <c r="A786" s="2">
         <v>43770</v>
       </c>
       <c r="B786">
@@ -6644,7 +6667,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787">
+      <c r="A787" s="2">
         <v>43800</v>
       </c>
       <c r="B787">
@@ -6652,7 +6675,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788">
+      <c r="A788" s="2">
         <v>43831</v>
       </c>
       <c r="B788">
@@ -6660,7 +6683,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789">
+      <c r="A789" s="2">
         <v>43862</v>
       </c>
       <c r="B789">
@@ -6668,7 +6691,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790">
+      <c r="A790" s="2">
         <v>43891</v>
       </c>
       <c r="B790">
@@ -6676,7 +6699,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791">
+      <c r="A791" s="2">
         <v>43922</v>
       </c>
       <c r="B791">
@@ -6684,7 +6707,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792">
+      <c r="A792" s="2">
         <v>43952</v>
       </c>
       <c r="B792">
@@ -6692,7 +6715,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793">
+      <c r="A793" s="2">
         <v>43983</v>
       </c>
       <c r="B793">
@@ -6700,7 +6723,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794">
+      <c r="A794" s="2">
         <v>44013</v>
       </c>
       <c r="B794">
@@ -6708,7 +6731,7 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795">
+      <c r="A795" s="2">
         <v>44044</v>
       </c>
       <c r="B795">
@@ -6716,7 +6739,7 @@
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796">
+      <c r="A796" s="2">
         <v>44075</v>
       </c>
       <c r="B796">
@@ -6724,7 +6747,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797">
+      <c r="A797" s="2">
         <v>44105</v>
       </c>
       <c r="B797">
@@ -6732,7 +6755,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798">
+      <c r="A798" s="2">
         <v>44136</v>
       </c>
       <c r="B798">
@@ -6740,7 +6763,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799">
+      <c r="A799" s="2">
         <v>44166</v>
       </c>
       <c r="B799">
@@ -6748,7 +6771,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800">
+      <c r="A800" s="2">
         <v>44197</v>
       </c>
       <c r="B800">
@@ -6756,7 +6779,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801">
+      <c r="A801" s="2">
         <v>44228</v>
       </c>
       <c r="B801">
@@ -6764,7 +6787,7 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802">
+      <c r="A802" s="2">
         <v>44256</v>
       </c>
       <c r="B802">
@@ -6772,7 +6795,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803">
+      <c r="A803" s="2">
         <v>44287</v>
       </c>
       <c r="B803">
@@ -6780,7 +6803,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804">
+      <c r="A804" s="2">
         <v>44317</v>
       </c>
       <c r="B804">
@@ -6788,7 +6811,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805">
+      <c r="A805" s="2">
         <v>44348</v>
       </c>
       <c r="B805">
@@ -6796,7 +6819,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806">
+      <c r="A806" s="2">
         <v>44378</v>
       </c>
       <c r="B806">
@@ -6804,7 +6827,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807">
+      <c r="A807" s="2">
         <v>44409</v>
       </c>
       <c r="B807">
@@ -6812,7 +6835,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808">
+      <c r="A808" s="2">
         <v>44440</v>
       </c>
       <c r="B808">
@@ -6820,7 +6843,7 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809">
+      <c r="A809" s="2">
         <v>44470</v>
       </c>
       <c r="B809">
@@ -6828,7 +6851,7 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810">
+      <c r="A810" s="2">
         <v>44501</v>
       </c>
       <c r="B810">
@@ -6836,7 +6859,7 @@
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811">
+      <c r="A811" s="2">
         <v>44531</v>
       </c>
       <c r="B811">
@@ -6844,7 +6867,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812">
+      <c r="A812" s="2">
         <v>44562</v>
       </c>
       <c r="B812">
@@ -6853,5 +6876,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>